--- a/Data/CorrLink.xlsx
+++ b/Data/CorrLink.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SybrosTech\CorrLinks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB8459A-3047-4018-9353-EBB73754F62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0A9213-BAD4-4674-B06F-5496D92AD813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="EmailData" sheetId="2" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <x:dimension ref="A1:D47"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="G11" sqref="G11"/>
+      <x:selection activeCell="C12" sqref="C12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -450,7 +450,7 @@
     <x:col min="3" max="3" width="24.441406" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="1" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -464,7 +464,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="2" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -478,7 +478,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="3" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="A3" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -492,136 +492,136 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="4" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C4" s="1"/>
     </x:row>
-    <x:row r="5" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="5" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C5" s="1"/>
     </x:row>
-    <x:row r="6" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="6" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C6" s="1"/>
     </x:row>
-    <x:row r="7" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="7" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C7" s="1"/>
     </x:row>
-    <x:row r="8" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="8" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C8" s="1"/>
     </x:row>
-    <x:row r="9" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="9" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C9" s="1"/>
     </x:row>
-    <x:row r="10" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="10" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C10" s="1"/>
     </x:row>
-    <x:row r="11" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="11" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C11" s="1"/>
     </x:row>
-    <x:row r="12" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="12" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C12" s="1"/>
     </x:row>
-    <x:row r="13" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="13" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C13" s="1"/>
     </x:row>
-    <x:row r="14" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="14" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C14" s="1"/>
     </x:row>
-    <x:row r="15" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="15" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C15" s="1"/>
     </x:row>
-    <x:row r="16" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="16" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C16" s="1"/>
     </x:row>
-    <x:row r="17" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="17" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C17" s="1"/>
     </x:row>
-    <x:row r="18" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="18" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C18" s="1"/>
     </x:row>
-    <x:row r="19" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="19" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C19" s="1"/>
     </x:row>
-    <x:row r="20" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="20" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C20" s="1"/>
     </x:row>
-    <x:row r="21" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="21" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C21" s="1"/>
     </x:row>
-    <x:row r="22" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="22" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C22" s="1"/>
     </x:row>
-    <x:row r="23" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="23" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C23" s="1"/>
     </x:row>
-    <x:row r="24" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="24" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C24" s="1"/>
     </x:row>
-    <x:row r="25" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="25" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C25" s="1"/>
     </x:row>
-    <x:row r="26" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="26" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C26" s="1"/>
     </x:row>
-    <x:row r="27" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="27" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C27" s="1"/>
     </x:row>
-    <x:row r="28" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="28" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C28" s="1"/>
     </x:row>
-    <x:row r="29" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="29" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C29" s="1"/>
     </x:row>
-    <x:row r="30" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="30" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C30" s="1"/>
     </x:row>
-    <x:row r="31" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="31" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C31" s="1"/>
     </x:row>
-    <x:row r="32" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="32" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C32" s="1"/>
     </x:row>
-    <x:row r="33" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="33" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C33" s="1"/>
     </x:row>
-    <x:row r="34" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="34" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C34" s="1"/>
     </x:row>
-    <x:row r="35" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="35" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C35" s="1"/>
     </x:row>
-    <x:row r="36" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="36" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C36" s="1"/>
     </x:row>
-    <x:row r="37" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="37" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C37" s="1"/>
     </x:row>
-    <x:row r="38" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="38" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C38" s="1"/>
     </x:row>
-    <x:row r="39" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="39" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C39" s="1"/>
     </x:row>
-    <x:row r="40" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="40" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C40" s="1"/>
     </x:row>
-    <x:row r="41" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="41" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C41" s="1"/>
     </x:row>
-    <x:row r="42" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="42" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C42" s="1"/>
     </x:row>
-    <x:row r="43" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="43" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C43" s="1"/>
     </x:row>
-    <x:row r="44" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="44" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C44" s="1"/>
     </x:row>
-    <x:row r="45" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="45" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C45" s="1"/>
     </x:row>
-    <x:row r="46" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="46" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C46" s="1"/>
     </x:row>
-    <x:row r="47" spans="1:7" ht="20.1" customHeight="1">
+    <x:row r="47" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="C47" s="1"/>
     </x:row>
   </x:sheetData>

--- a/Data/CorrLink.xlsx
+++ b/Data/CorrLink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SybrosTech\CorrLinks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13687A11-9D93-4243-9E75-4E7297D2561E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31643A0-3F8C-4147-A805-CBB11378415A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -374,6 +374,9 @@
   </x:si>
   <x:si>
     <x:t>Newsletter Group 111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04/21/2025</x:t>
   </x:si>
   <x:si>
     <x:t>Newsletter Group 112</x:t>
@@ -1938,8 +1941,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:D505"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="H10" sqref="H10"/>
+    <x:sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <x:selection activeCell="H180" sqref="H180"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3508,1293 +3511,2259 @@
       <x:c r="A112" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
+      <x:c r="B112" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C112" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
       <x:c r="D112" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:8">
       <x:c r="A113" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C113" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="D113" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:8">
       <x:c r="A114" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C114" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D114" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:8">
       <x:c r="A115" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C115" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D115" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:8">
       <x:c r="A116" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C116" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D116" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:8">
       <x:c r="A117" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C117" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D117" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:8">
       <x:c r="A118" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C118" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D118" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:8">
       <x:c r="A119" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C119" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D119" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:8">
       <x:c r="A120" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C120" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D120" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:8">
       <x:c r="A121" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C121" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D121" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:8">
       <x:c r="A122" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C122" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D122" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:8">
       <x:c r="A123" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C123" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D123" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:8">
       <x:c r="A124" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C124" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D124" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:8">
       <x:c r="A125" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C125" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D125" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:8">
       <x:c r="A126" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C126" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D126" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:8">
       <x:c r="A127" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C127" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D127" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:8">
       <x:c r="A128" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C128" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D128" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:8">
       <x:c r="A129" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C129" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D129" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:8">
       <x:c r="A130" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C130" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D130" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:8">
       <x:c r="A131" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C131" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D131" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:8">
       <x:c r="A132" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C132" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D132" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:8">
       <x:c r="A133" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C133" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D133" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:8">
       <x:c r="A134" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C134" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D134" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:8">
       <x:c r="A135" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C135" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D135" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:8">
       <x:c r="A136" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C136" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D136" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:8">
       <x:c r="A137" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C137" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D137" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:8">
       <x:c r="A138" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C138" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D138" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:8">
       <x:c r="A139" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C139" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D139" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:8">
       <x:c r="A140" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C140" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D140" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:8">
       <x:c r="A141" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C141" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D141" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:8">
       <x:c r="A142" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C142" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D142" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:8">
       <x:c r="A143" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C143" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D143" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:8">
       <x:c r="A144" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C144" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D144" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:8">
       <x:c r="A145" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C145" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D145" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:8">
       <x:c r="A146" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C146" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D146" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:8">
       <x:c r="A147" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C147" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D147" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:8">
       <x:c r="A148" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C148" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D148" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:8">
       <x:c r="A149" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C149" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D149" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:8">
       <x:c r="A150" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C150" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D150" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:8">
       <x:c r="A151" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C151" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D151" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:8">
       <x:c r="A152" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C152" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D152" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:8">
       <x:c r="A153" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C153" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D153" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:8">
       <x:c r="A154" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C154" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D154" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:8">
       <x:c r="A155" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C155" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D155" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:8">
       <x:c r="A156" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C156" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D156" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:8">
       <x:c r="A157" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C157" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D157" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:8">
       <x:c r="A158" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C158" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D158" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:8">
       <x:c r="A159" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C159" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D159" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:8">
       <x:c r="A160" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C160" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D160" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:8">
       <x:c r="A161" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C161" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D161" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:8">
       <x:c r="A162" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C162" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D162" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:8">
       <x:c r="A163" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C163" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D163" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:8">
       <x:c r="A164" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C164" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D164" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:8">
       <x:c r="A165" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C165" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D165" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:8">
       <x:c r="A166" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C166" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D166" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:8">
       <x:c r="A167" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C167" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D167" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:8">
       <x:c r="A168" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C168" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D168" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:8">
       <x:c r="A169" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C169" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D169" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:8">
       <x:c r="A170" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B170" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C170" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D170" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:8">
       <x:c r="A171" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B171" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C171" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D171" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:8">
       <x:c r="A172" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B172" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C172" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D172" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:8">
       <x:c r="A173" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C173" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D173" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:8">
       <x:c r="A174" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C174" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D174" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:8">
       <x:c r="A175" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C175" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D175" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:8">
       <x:c r="A176" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B176" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C176" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D176" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:8">
       <x:c r="A177" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B177" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C177" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D177" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:8">
       <x:c r="A178" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B178" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C178" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D178" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:8">
       <x:c r="A179" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B179" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C179" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D179" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:8">
       <x:c r="A180" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B180" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C180" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D180" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:8">
       <x:c r="A181" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B181" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C181" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D181" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:8">
       <x:c r="A182" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B182" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C182" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D182" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:8">
       <x:c r="A183" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C183" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D183" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:8">
       <x:c r="A184" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C184" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D184" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:8">
       <x:c r="A185" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C185" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D185" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:8">
       <x:c r="A186" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C186" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D186" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:8">
       <x:c r="A187" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C187" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D187" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:8">
       <x:c r="A188" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C188" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D188" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:8">
       <x:c r="A189" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C189" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D189" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:8">
       <x:c r="A190" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C190" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D190" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:8">
       <x:c r="A191" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C191" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D191" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:8">
       <x:c r="A192" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C192" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D192" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:8">
       <x:c r="A193" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C193" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D193" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:8">
       <x:c r="A194" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B194" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C194" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D194" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:8">
       <x:c r="A195" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B195" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C195" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D195" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:8">
       <x:c r="A196" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C196" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D196" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:8">
       <x:c r="A197" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C197" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D197" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:8">
       <x:c r="A198" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C198" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D198" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:8">
       <x:c r="A199" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C199" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D199" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:8">
       <x:c r="A200" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B200" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C200" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D200" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:8">
       <x:c r="A201" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C201" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D201" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:8">
       <x:c r="A202" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B202" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C202" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D202" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:8">
       <x:c r="A203" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C203" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D203" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:8">
       <x:c r="A204" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B204" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C204" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D204" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:8">
       <x:c r="A205" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B205" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C205" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D205" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:8">
       <x:c r="A206" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B206" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C206" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D206" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:8">
       <x:c r="A207" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B207" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C207" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D207" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:8">
       <x:c r="A208" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B208" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C208" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D208" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:8">
       <x:c r="A209" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B209" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C209" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D209" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:8">
       <x:c r="A210" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B210" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C210" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D210" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:8">
       <x:c r="A211" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B211" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C211" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D211" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:8">
       <x:c r="A212" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B212" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C212" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D212" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:8">
       <x:c r="A213" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B213" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C213" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D213" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:8">
       <x:c r="A214" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B214" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C214" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D214" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:8">
       <x:c r="A215" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B215" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C215" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D215" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:8">
       <x:c r="A216" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B216" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C216" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D216" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:8">
       <x:c r="A217" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B217" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C217" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D217" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:8">
       <x:c r="A218" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B218" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C218" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D218" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:8">
       <x:c r="A219" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B219" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C219" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D219" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:8">
       <x:c r="A220" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B220" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C220" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D220" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:8">
       <x:c r="A221" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B221" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C221" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D221" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:8">
       <x:c r="A222" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B222" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C222" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D222" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:8">
       <x:c r="A223" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B223" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C223" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D223" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:8">
       <x:c r="A224" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B224" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C224" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D224" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:8">
       <x:c r="A225" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B225" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C225" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D225" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:8">
       <x:c r="A226" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B226" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C226" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D226" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:8">
       <x:c r="A227" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C227" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D227" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:8">
       <x:c r="A228" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C228" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D228" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:8">
       <x:c r="A229" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C229" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D229" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:8">
       <x:c r="A230" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B230" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C230" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D230" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:8">
       <x:c r="A231" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C231" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D231" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:8">
       <x:c r="A232" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B232" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C232" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D232" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:8">
       <x:c r="A233" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B233" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C233" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D233" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:8">
       <x:c r="A234" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="B234" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C234" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D234" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:8">
       <x:c r="A235" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B235" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C235" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D235" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:8">
       <x:c r="A236" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B236" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C236" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D236" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:8">
       <x:c r="A237" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="B237" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C237" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D237" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:8">
       <x:c r="A238" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B238" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C238" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D238" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:8">
       <x:c r="A239" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="B239" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C239" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D239" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:8">
       <x:c r="A240" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B240" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C240" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D240" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:8">
       <x:c r="A241" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="B241" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C241" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D241" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:8">
       <x:c r="A242" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="B242" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C242" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D242" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:8">
       <x:c r="A243" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B243" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C243" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D243" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:8">
       <x:c r="A244" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="B244" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C244" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D244" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:8">
       <x:c r="A245" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B245" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C245" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D245" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:8">
       <x:c r="A246" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="B246" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C246" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D246" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:8">
       <x:c r="A247" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="B247" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C247" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D247" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:8">
       <x:c r="A248" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="B248" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C248" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D248" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:8">
       <x:c r="A249" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="B249" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C249" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D249" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:8">
       <x:c r="A250" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="B250" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C250" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D250" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:8">
       <x:c r="A251" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B251" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C251" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D251" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:8">
       <x:c r="A252" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="B252" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C252" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D252" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:8">
       <x:c r="A253" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B253" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C253" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D253" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:8">
       <x:c r="A254" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="B254" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C254" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D254" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:8">
       <x:c r="A255" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B255" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C255" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D255" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:8">
       <x:c r="A256" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="B256" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C256" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D256" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:8">
       <x:c r="A257" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B257" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C257" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D257" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:8">
       <x:c r="A258" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="B258" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C258" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D258" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:8">
       <x:c r="A259" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="B259" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C259" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D259" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:8">
       <x:c r="A260" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="B260" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C260" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D260" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:8">
       <x:c r="A261" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="B261" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C261" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D261" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:8">
       <x:c r="A262" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="B262" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C262" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D262" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:8">
       <x:c r="A263" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="B263" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C263" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D263" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="1:8">
       <x:c r="A264" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="B264" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C264" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D264" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:8">
       <x:c r="A265" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="B265" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C265" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D265" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="266" spans="1:8">
       <x:c r="A266" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="B266" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C266" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D266" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:8">
       <x:c r="A267" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B267" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C267" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D267" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:8">
       <x:c r="A268" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="B268" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C268" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D268" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:8">
       <x:c r="A269" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="B269" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C269" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D269" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:8">
       <x:c r="A270" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="B270" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C270" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D270" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:8">
       <x:c r="A271" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="B271" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C271" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D271" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="272" spans="1:8">
       <x:c r="A272" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="B272" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C272" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D272" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:8">
       <x:c r="A273" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D273" s="0">
         <x:v>0</x:v>
@@ -4802,7 +5771,7 @@
     </x:row>
     <x:row r="274" spans="1:8">
       <x:c r="A274" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D274" s="0">
         <x:v>0</x:v>
@@ -4810,7 +5779,7 @@
     </x:row>
     <x:row r="275" spans="1:8">
       <x:c r="A275" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D275" s="0">
         <x:v>0</x:v>
@@ -4818,7 +5787,7 @@
     </x:row>
     <x:row r="276" spans="1:8">
       <x:c r="A276" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D276" s="0">
         <x:v>0</x:v>
@@ -4826,7 +5795,7 @@
     </x:row>
     <x:row r="277" spans="1:8">
       <x:c r="A277" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D277" s="0">
         <x:v>0</x:v>
@@ -4834,7 +5803,7 @@
     </x:row>
     <x:row r="278" spans="1:8">
       <x:c r="A278" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="D278" s="0">
         <x:v>0</x:v>
@@ -4842,7 +5811,7 @@
     </x:row>
     <x:row r="279" spans="1:8">
       <x:c r="A279" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D279" s="0">
         <x:v>0</x:v>
@@ -4850,7 +5819,7 @@
     </x:row>
     <x:row r="280" spans="1:8">
       <x:c r="A280" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="D280" s="0">
         <x:v>0</x:v>
@@ -4858,7 +5827,7 @@
     </x:row>
     <x:row r="281" spans="1:8">
       <x:c r="A281" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="D281" s="0">
         <x:v>0</x:v>
@@ -4866,7 +5835,7 @@
     </x:row>
     <x:row r="282" spans="1:8">
       <x:c r="A282" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="D282" s="0">
         <x:v>0</x:v>
@@ -4874,7 +5843,7 @@
     </x:row>
     <x:row r="283" spans="1:8">
       <x:c r="A283" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="D283" s="0">
         <x:v>0</x:v>
@@ -4882,7 +5851,7 @@
     </x:row>
     <x:row r="284" spans="1:8">
       <x:c r="A284" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="D284" s="0">
         <x:v>0</x:v>
@@ -4890,7 +5859,7 @@
     </x:row>
     <x:row r="285" spans="1:8">
       <x:c r="A285" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="D285" s="0">
         <x:v>0</x:v>
@@ -4898,7 +5867,7 @@
     </x:row>
     <x:row r="286" spans="1:8">
       <x:c r="A286" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D286" s="0">
         <x:v>0</x:v>
@@ -4906,7 +5875,7 @@
     </x:row>
     <x:row r="287" spans="1:8">
       <x:c r="A287" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D287" s="0">
         <x:v>0</x:v>
@@ -4914,7 +5883,7 @@
     </x:row>
     <x:row r="288" spans="1:8">
       <x:c r="A288" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="D288" s="0">
         <x:v>0</x:v>
@@ -4922,7 +5891,7 @@
     </x:row>
     <x:row r="289" spans="1:8">
       <x:c r="A289" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="D289" s="0">
         <x:v>0</x:v>
@@ -4930,7 +5899,7 @@
     </x:row>
     <x:row r="290" spans="1:8">
       <x:c r="A290" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="D290" s="0">
         <x:v>0</x:v>
@@ -4938,7 +5907,7 @@
     </x:row>
     <x:row r="291" spans="1:8">
       <x:c r="A291" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="D291" s="0">
         <x:v>0</x:v>
@@ -4946,7 +5915,7 @@
     </x:row>
     <x:row r="292" spans="1:8">
       <x:c r="A292" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="D292" s="0">
         <x:v>0</x:v>
@@ -4954,7 +5923,7 @@
     </x:row>
     <x:row r="293" spans="1:8">
       <x:c r="A293" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="D293" s="0">
         <x:v>0</x:v>
@@ -4962,7 +5931,7 @@
     </x:row>
     <x:row r="294" spans="1:8">
       <x:c r="A294" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D294" s="0">
         <x:v>0</x:v>
@@ -4970,7 +5939,7 @@
     </x:row>
     <x:row r="295" spans="1:8">
       <x:c r="A295" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="D295" s="0">
         <x:v>0</x:v>
@@ -4978,7 +5947,7 @@
     </x:row>
     <x:row r="296" spans="1:8">
       <x:c r="A296" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="D296" s="0">
         <x:v>0</x:v>
@@ -4986,7 +5955,7 @@
     </x:row>
     <x:row r="297" spans="1:8">
       <x:c r="A297" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="D297" s="0">
         <x:v>0</x:v>
@@ -4994,7 +5963,7 @@
     </x:row>
     <x:row r="298" spans="1:8">
       <x:c r="A298" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="D298" s="0">
         <x:v>0</x:v>
@@ -5002,7 +5971,7 @@
     </x:row>
     <x:row r="299" spans="1:8">
       <x:c r="A299" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="D299" s="0">
         <x:v>0</x:v>
@@ -5010,7 +5979,7 @@
     </x:row>
     <x:row r="300" spans="1:8">
       <x:c r="A300" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D300" s="0">
         <x:v>0</x:v>
@@ -5018,7 +5987,7 @@
     </x:row>
     <x:row r="301" spans="1:8">
       <x:c r="A301" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="D301" s="0">
         <x:v>0</x:v>
@@ -5026,7 +5995,7 @@
     </x:row>
     <x:row r="302" spans="1:8">
       <x:c r="A302" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D302" s="0">
         <x:v>0</x:v>
@@ -5034,7 +6003,7 @@
     </x:row>
     <x:row r="303" spans="1:8">
       <x:c r="A303" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="D303" s="0">
         <x:v>0</x:v>
@@ -5042,7 +6011,7 @@
     </x:row>
     <x:row r="304" spans="1:8">
       <x:c r="A304" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D304" s="0">
         <x:v>0</x:v>
@@ -5050,7 +6019,7 @@
     </x:row>
     <x:row r="305" spans="1:8">
       <x:c r="A305" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D305" s="0">
         <x:v>0</x:v>
@@ -5058,7 +6027,7 @@
     </x:row>
     <x:row r="306" spans="1:8">
       <x:c r="A306" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="D306" s="0">
         <x:v>0</x:v>
@@ -5066,7 +6035,7 @@
     </x:row>
     <x:row r="307" spans="1:8">
       <x:c r="A307" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D307" s="0">
         <x:v>0</x:v>
@@ -5074,7 +6043,7 @@
     </x:row>
     <x:row r="308" spans="1:8">
       <x:c r="A308" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D308" s="0">
         <x:v>0</x:v>
@@ -5082,7 +6051,7 @@
     </x:row>
     <x:row r="309" spans="1:8">
       <x:c r="A309" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="D309" s="0">
         <x:v>0</x:v>
@@ -5090,7 +6059,7 @@
     </x:row>
     <x:row r="310" spans="1:8">
       <x:c r="A310" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="D310" s="0">
         <x:v>0</x:v>
@@ -5098,7 +6067,7 @@
     </x:row>
     <x:row r="311" spans="1:8">
       <x:c r="A311" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="D311" s="0">
         <x:v>0</x:v>
@@ -5106,7 +6075,7 @@
     </x:row>
     <x:row r="312" spans="1:8">
       <x:c r="A312" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="D312" s="0">
         <x:v>0</x:v>
@@ -5114,7 +6083,7 @@
     </x:row>
     <x:row r="313" spans="1:8">
       <x:c r="A313" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="D313" s="0">
         <x:v>0</x:v>
@@ -5122,7 +6091,7 @@
     </x:row>
     <x:row r="314" spans="1:8">
       <x:c r="A314" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="D314" s="0">
         <x:v>0</x:v>
@@ -5130,7 +6099,7 @@
     </x:row>
     <x:row r="315" spans="1:8">
       <x:c r="A315" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="D315" s="0">
         <x:v>0</x:v>
@@ -5138,7 +6107,7 @@
     </x:row>
     <x:row r="316" spans="1:8">
       <x:c r="A316" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="D316" s="0">
         <x:v>0</x:v>
@@ -5146,7 +6115,7 @@
     </x:row>
     <x:row r="317" spans="1:8">
       <x:c r="A317" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="D317" s="0">
         <x:v>0</x:v>
@@ -5154,7 +6123,7 @@
     </x:row>
     <x:row r="318" spans="1:8">
       <x:c r="A318" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="D318" s="0">
         <x:v>0</x:v>
@@ -5162,7 +6131,7 @@
     </x:row>
     <x:row r="319" spans="1:8">
       <x:c r="A319" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="D319" s="0">
         <x:v>0</x:v>
@@ -5170,7 +6139,7 @@
     </x:row>
     <x:row r="320" spans="1:8">
       <x:c r="A320" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="D320" s="0">
         <x:v>0</x:v>
@@ -5178,7 +6147,7 @@
     </x:row>
     <x:row r="321" spans="1:8">
       <x:c r="A321" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="D321" s="0">
         <x:v>0</x:v>
@@ -5186,7 +6155,7 @@
     </x:row>
     <x:row r="322" spans="1:8">
       <x:c r="A322" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="D322" s="0">
         <x:v>0</x:v>
@@ -5194,7 +6163,7 @@
     </x:row>
     <x:row r="323" spans="1:8">
       <x:c r="A323" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="D323" s="0">
         <x:v>0</x:v>
@@ -5202,7 +6171,7 @@
     </x:row>
     <x:row r="324" spans="1:8">
       <x:c r="A324" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="D324" s="0">
         <x:v>0</x:v>
@@ -5210,7 +6179,7 @@
     </x:row>
     <x:row r="325" spans="1:8">
       <x:c r="A325" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D325" s="0">
         <x:v>0</x:v>
@@ -5218,7 +6187,7 @@
     </x:row>
     <x:row r="326" spans="1:8">
       <x:c r="A326" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="D326" s="0">
         <x:v>0</x:v>
@@ -5226,7 +6195,7 @@
     </x:row>
     <x:row r="327" spans="1:8">
       <x:c r="A327" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="D327" s="0">
         <x:v>0</x:v>
@@ -5234,7 +6203,7 @@
     </x:row>
     <x:row r="328" spans="1:8">
       <x:c r="A328" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="D328" s="0">
         <x:v>0</x:v>
@@ -5242,7 +6211,7 @@
     </x:row>
     <x:row r="329" spans="1:8">
       <x:c r="A329" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="D329" s="0">
         <x:v>0</x:v>
@@ -5250,7 +6219,7 @@
     </x:row>
     <x:row r="330" spans="1:8">
       <x:c r="A330" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="D330" s="0">
         <x:v>0</x:v>
@@ -5258,7 +6227,7 @@
     </x:row>
     <x:row r="331" spans="1:8">
       <x:c r="A331" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="D331" s="0">
         <x:v>0</x:v>
@@ -5266,7 +6235,7 @@
     </x:row>
     <x:row r="332" spans="1:8">
       <x:c r="A332" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="D332" s="0">
         <x:v>0</x:v>
@@ -5274,7 +6243,7 @@
     </x:row>
     <x:row r="333" spans="1:8">
       <x:c r="A333" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="D333" s="0">
         <x:v>0</x:v>
@@ -5282,7 +6251,7 @@
     </x:row>
     <x:row r="334" spans="1:8">
       <x:c r="A334" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="D334" s="0">
         <x:v>0</x:v>
@@ -5290,7 +6259,7 @@
     </x:row>
     <x:row r="335" spans="1:8">
       <x:c r="A335" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="D335" s="0">
         <x:v>0</x:v>
@@ -5298,7 +6267,7 @@
     </x:row>
     <x:row r="336" spans="1:8">
       <x:c r="A336" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="D336" s="0">
         <x:v>0</x:v>
@@ -5306,7 +6275,7 @@
     </x:row>
     <x:row r="337" spans="1:8">
       <x:c r="A337" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="D337" s="0">
         <x:v>0</x:v>
@@ -5314,7 +6283,7 @@
     </x:row>
     <x:row r="338" spans="1:8">
       <x:c r="A338" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="D338" s="0">
         <x:v>0</x:v>
@@ -5322,7 +6291,7 @@
     </x:row>
     <x:row r="339" spans="1:8">
       <x:c r="A339" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="D339" s="0">
         <x:v>0</x:v>
@@ -5330,7 +6299,7 @@
     </x:row>
     <x:row r="340" spans="1:8">
       <x:c r="A340" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D340" s="0">
         <x:v>0</x:v>
@@ -5338,7 +6307,7 @@
     </x:row>
     <x:row r="341" spans="1:8">
       <x:c r="A341" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="D341" s="0">
         <x:v>0</x:v>
@@ -5346,7 +6315,7 @@
     </x:row>
     <x:row r="342" spans="1:8">
       <x:c r="A342" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="D342" s="0">
         <x:v>0</x:v>
@@ -5354,7 +6323,7 @@
     </x:row>
     <x:row r="343" spans="1:8">
       <x:c r="A343" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="D343" s="0">
         <x:v>0</x:v>
@@ -5362,7 +6331,7 @@
     </x:row>
     <x:row r="344" spans="1:8">
       <x:c r="A344" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="D344" s="0">
         <x:v>0</x:v>
@@ -5370,7 +6339,7 @@
     </x:row>
     <x:row r="345" spans="1:8">
       <x:c r="A345" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="D345" s="0">
         <x:v>0</x:v>
@@ -5378,7 +6347,7 @@
     </x:row>
     <x:row r="346" spans="1:8">
       <x:c r="A346" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="D346" s="0">
         <x:v>0</x:v>
@@ -5386,7 +6355,7 @@
     </x:row>
     <x:row r="347" spans="1:8">
       <x:c r="A347" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="D347" s="0">
         <x:v>0</x:v>
@@ -5394,7 +6363,7 @@
     </x:row>
     <x:row r="348" spans="1:8">
       <x:c r="A348" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="D348" s="0">
         <x:v>0</x:v>
@@ -5402,7 +6371,7 @@
     </x:row>
     <x:row r="349" spans="1:8">
       <x:c r="A349" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="D349" s="0">
         <x:v>0</x:v>
@@ -5410,7 +6379,7 @@
     </x:row>
     <x:row r="350" spans="1:8">
       <x:c r="A350" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="D350" s="0">
         <x:v>0</x:v>
@@ -5418,7 +6387,7 @@
     </x:row>
     <x:row r="351" spans="1:8">
       <x:c r="A351" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="D351" s="0">
         <x:v>0</x:v>
@@ -5426,7 +6395,7 @@
     </x:row>
     <x:row r="352" spans="1:8">
       <x:c r="A352" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="D352" s="0">
         <x:v>0</x:v>
@@ -5434,7 +6403,7 @@
     </x:row>
     <x:row r="353" spans="1:8">
       <x:c r="A353" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="D353" s="0">
         <x:v>0</x:v>
@@ -5442,7 +6411,7 @@
     </x:row>
     <x:row r="354" spans="1:8">
       <x:c r="A354" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="D354" s="0">
         <x:v>0</x:v>
@@ -5450,7 +6419,7 @@
     </x:row>
     <x:row r="355" spans="1:8">
       <x:c r="A355" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="D355" s="0">
         <x:v>0</x:v>
@@ -5458,7 +6427,7 @@
     </x:row>
     <x:row r="356" spans="1:8">
       <x:c r="A356" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="D356" s="0">
         <x:v>0</x:v>
@@ -5466,7 +6435,7 @@
     </x:row>
     <x:row r="357" spans="1:8">
       <x:c r="A357" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="D357" s="0">
         <x:v>0</x:v>
@@ -5474,7 +6443,7 @@
     </x:row>
     <x:row r="358" spans="1:8">
       <x:c r="A358" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="D358" s="0">
         <x:v>0</x:v>
@@ -5482,7 +6451,7 @@
     </x:row>
     <x:row r="359" spans="1:8">
       <x:c r="A359" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="D359" s="0">
         <x:v>0</x:v>
@@ -5490,7 +6459,7 @@
     </x:row>
     <x:row r="360" spans="1:8">
       <x:c r="A360" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="D360" s="0">
         <x:v>0</x:v>
@@ -5498,7 +6467,7 @@
     </x:row>
     <x:row r="361" spans="1:8">
       <x:c r="A361" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="D361" s="0">
         <x:v>0</x:v>
@@ -5506,7 +6475,7 @@
     </x:row>
     <x:row r="362" spans="1:8">
       <x:c r="A362" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="D362" s="0">
         <x:v>0</x:v>
@@ -5514,7 +6483,7 @@
     </x:row>
     <x:row r="363" spans="1:8">
       <x:c r="A363" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="D363" s="0">
         <x:v>0</x:v>
@@ -5522,7 +6491,7 @@
     </x:row>
     <x:row r="364" spans="1:8">
       <x:c r="A364" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="D364" s="0">
         <x:v>0</x:v>
@@ -5530,7 +6499,7 @@
     </x:row>
     <x:row r="365" spans="1:8">
       <x:c r="A365" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="D365" s="0">
         <x:v>0</x:v>
@@ -5538,7 +6507,7 @@
     </x:row>
     <x:row r="366" spans="1:8">
       <x:c r="A366" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="D366" s="0">
         <x:v>0</x:v>
@@ -5546,7 +6515,7 @@
     </x:row>
     <x:row r="367" spans="1:8">
       <x:c r="A367" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="D367" s="0">
         <x:v>0</x:v>
@@ -5554,7 +6523,7 @@
     </x:row>
     <x:row r="368" spans="1:8">
       <x:c r="A368" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="D368" s="0">
         <x:v>0</x:v>
@@ -5562,7 +6531,7 @@
     </x:row>
     <x:row r="369" spans="1:8">
       <x:c r="A369" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="D369" s="0">
         <x:v>0</x:v>
@@ -5570,7 +6539,7 @@
     </x:row>
     <x:row r="370" spans="1:8">
       <x:c r="A370" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D370" s="0">
         <x:v>0</x:v>
@@ -5578,7 +6547,7 @@
     </x:row>
     <x:row r="371" spans="1:8">
       <x:c r="A371" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="D371" s="0">
         <x:v>0</x:v>
@@ -5586,7 +6555,7 @@
     </x:row>
     <x:row r="372" spans="1:8">
       <x:c r="A372" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="D372" s="0">
         <x:v>0</x:v>
@@ -5594,7 +6563,7 @@
     </x:row>
     <x:row r="373" spans="1:8">
       <x:c r="A373" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="D373" s="0">
         <x:v>0</x:v>
@@ -5602,7 +6571,7 @@
     </x:row>
     <x:row r="374" spans="1:8">
       <x:c r="A374" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="D374" s="0">
         <x:v>0</x:v>
@@ -5610,7 +6579,7 @@
     </x:row>
     <x:row r="375" spans="1:8">
       <x:c r="A375" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="D375" s="0">
         <x:v>0</x:v>
@@ -5618,7 +6587,7 @@
     </x:row>
     <x:row r="376" spans="1:8">
       <x:c r="A376" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="D376" s="0">
         <x:v>0</x:v>
@@ -5626,7 +6595,7 @@
     </x:row>
     <x:row r="377" spans="1:8">
       <x:c r="A377" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="D377" s="0">
         <x:v>0</x:v>
@@ -5634,7 +6603,7 @@
     </x:row>
     <x:row r="378" spans="1:8">
       <x:c r="A378" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="D378" s="0">
         <x:v>0</x:v>
@@ -5642,7 +6611,7 @@
     </x:row>
     <x:row r="379" spans="1:8">
       <x:c r="A379" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="D379" s="0">
         <x:v>0</x:v>
@@ -5650,7 +6619,7 @@
     </x:row>
     <x:row r="380" spans="1:8">
       <x:c r="A380" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="D380" s="0">
         <x:v>0</x:v>
@@ -5658,7 +6627,7 @@
     </x:row>
     <x:row r="381" spans="1:8">
       <x:c r="A381" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="D381" s="0">
         <x:v>0</x:v>
@@ -5666,7 +6635,7 @@
     </x:row>
     <x:row r="382" spans="1:8">
       <x:c r="A382" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="D382" s="0">
         <x:v>0</x:v>
@@ -5674,7 +6643,7 @@
     </x:row>
     <x:row r="383" spans="1:8">
       <x:c r="A383" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="D383" s="0">
         <x:v>0</x:v>
@@ -5682,7 +6651,7 @@
     </x:row>
     <x:row r="384" spans="1:8">
       <x:c r="A384" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="D384" s="0">
         <x:v>0</x:v>
@@ -5690,7 +6659,7 @@
     </x:row>
     <x:row r="385" spans="1:8">
       <x:c r="A385" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="D385" s="0">
         <x:v>0</x:v>
@@ -5698,7 +6667,7 @@
     </x:row>
     <x:row r="386" spans="1:8">
       <x:c r="A386" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="D386" s="0">
         <x:v>0</x:v>
@@ -5706,7 +6675,7 @@
     </x:row>
     <x:row r="387" spans="1:8">
       <x:c r="A387" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="D387" s="0">
         <x:v>0</x:v>
@@ -5714,7 +6683,7 @@
     </x:row>
     <x:row r="388" spans="1:8">
       <x:c r="A388" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="D388" s="0">
         <x:v>0</x:v>
@@ -5722,7 +6691,7 @@
     </x:row>
     <x:row r="389" spans="1:8">
       <x:c r="A389" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="D389" s="0">
         <x:v>0</x:v>
@@ -5730,7 +6699,7 @@
     </x:row>
     <x:row r="390" spans="1:8">
       <x:c r="A390" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="D390" s="0">
         <x:v>0</x:v>
@@ -5738,7 +6707,7 @@
     </x:row>
     <x:row r="391" spans="1:8">
       <x:c r="A391" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="D391" s="0">
         <x:v>0</x:v>
@@ -5746,7 +6715,7 @@
     </x:row>
     <x:row r="392" spans="1:8">
       <x:c r="A392" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="D392" s="0">
         <x:v>0</x:v>
@@ -5754,7 +6723,7 @@
     </x:row>
     <x:row r="393" spans="1:8">
       <x:c r="A393" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="D393" s="0">
         <x:v>0</x:v>
@@ -5762,7 +6731,7 @@
     </x:row>
     <x:row r="394" spans="1:8">
       <x:c r="A394" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="D394" s="0">
         <x:v>0</x:v>
@@ -5770,7 +6739,7 @@
     </x:row>
     <x:row r="395" spans="1:8">
       <x:c r="A395" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="D395" s="0">
         <x:v>0</x:v>
@@ -5778,7 +6747,7 @@
     </x:row>
     <x:row r="396" spans="1:8">
       <x:c r="A396" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="D396" s="0">
         <x:v>0</x:v>
@@ -5786,7 +6755,7 @@
     </x:row>
     <x:row r="397" spans="1:8">
       <x:c r="A397" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="D397" s="0">
         <x:v>0</x:v>
@@ -5794,7 +6763,7 @@
     </x:row>
     <x:row r="398" spans="1:8">
       <x:c r="A398" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="D398" s="0">
         <x:v>0</x:v>
@@ -5802,7 +6771,7 @@
     </x:row>
     <x:row r="399" spans="1:8">
       <x:c r="A399" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="D399" s="0">
         <x:v>0</x:v>
@@ -5810,7 +6779,7 @@
     </x:row>
     <x:row r="400" spans="1:8">
       <x:c r="A400" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="D400" s="0">
         <x:v>0</x:v>
@@ -5818,7 +6787,7 @@
     </x:row>
     <x:row r="401" spans="1:8">
       <x:c r="A401" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="D401" s="0">
         <x:v>0</x:v>
@@ -5826,7 +6795,7 @@
     </x:row>
     <x:row r="402" spans="1:8">
       <x:c r="A402" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="D402" s="0">
         <x:v>0</x:v>
@@ -5834,7 +6803,7 @@
     </x:row>
     <x:row r="403" spans="1:8">
       <x:c r="A403" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="D403" s="0">
         <x:v>0</x:v>
@@ -5842,7 +6811,7 @@
     </x:row>
     <x:row r="404" spans="1:8">
       <x:c r="A404" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="D404" s="0">
         <x:v>0</x:v>
@@ -5850,7 +6819,7 @@
     </x:row>
     <x:row r="405" spans="1:8">
       <x:c r="A405" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="D405" s="0">
         <x:v>0</x:v>
@@ -5858,7 +6827,7 @@
     </x:row>
     <x:row r="406" spans="1:8">
       <x:c r="A406" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="D406" s="0">
         <x:v>0</x:v>
@@ -5866,7 +6835,7 @@
     </x:row>
     <x:row r="407" spans="1:8">
       <x:c r="A407" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="D407" s="0">
         <x:v>0</x:v>
@@ -5874,7 +6843,7 @@
     </x:row>
     <x:row r="408" spans="1:8">
       <x:c r="A408" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="D408" s="0">
         <x:v>0</x:v>
@@ -5882,7 +6851,7 @@
     </x:row>
     <x:row r="409" spans="1:8">
       <x:c r="A409" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="D409" s="0">
         <x:v>0</x:v>
@@ -5890,7 +6859,7 @@
     </x:row>
     <x:row r="410" spans="1:8">
       <x:c r="A410" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="D410" s="0">
         <x:v>0</x:v>
@@ -5898,7 +6867,7 @@
     </x:row>
     <x:row r="411" spans="1:8">
       <x:c r="A411" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="D411" s="0">
         <x:v>0</x:v>
@@ -5906,7 +6875,7 @@
     </x:row>
     <x:row r="412" spans="1:8">
       <x:c r="A412" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="D412" s="0">
         <x:v>0</x:v>
@@ -5914,7 +6883,7 @@
     </x:row>
     <x:row r="413" spans="1:8">
       <x:c r="A413" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="D413" s="0">
         <x:v>0</x:v>
@@ -5922,7 +6891,7 @@
     </x:row>
     <x:row r="414" spans="1:8">
       <x:c r="A414" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="D414" s="0">
         <x:v>0</x:v>
@@ -5930,7 +6899,7 @@
     </x:row>
     <x:row r="415" spans="1:8">
       <x:c r="A415" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="D415" s="0">
         <x:v>0</x:v>
@@ -5938,7 +6907,7 @@
     </x:row>
     <x:row r="416" spans="1:8">
       <x:c r="A416" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="D416" s="0">
         <x:v>0</x:v>
@@ -5946,7 +6915,7 @@
     </x:row>
     <x:row r="417" spans="1:8">
       <x:c r="A417" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="D417" s="0">
         <x:v>0</x:v>
@@ -5954,7 +6923,7 @@
     </x:row>
     <x:row r="418" spans="1:8">
       <x:c r="A418" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="D418" s="0">
         <x:v>0</x:v>
@@ -5962,7 +6931,7 @@
     </x:row>
     <x:row r="419" spans="1:8">
       <x:c r="A419" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="D419" s="0">
         <x:v>0</x:v>
@@ -5970,7 +6939,7 @@
     </x:row>
     <x:row r="420" spans="1:8">
       <x:c r="A420" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="D420" s="0">
         <x:v>0</x:v>
@@ -5978,7 +6947,7 @@
     </x:row>
     <x:row r="421" spans="1:8">
       <x:c r="A421" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="D421" s="0">
         <x:v>0</x:v>
@@ -5986,7 +6955,7 @@
     </x:row>
     <x:row r="422" spans="1:8">
       <x:c r="A422" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="D422" s="0">
         <x:v>0</x:v>
@@ -5994,7 +6963,7 @@
     </x:row>
     <x:row r="423" spans="1:8">
       <x:c r="A423" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="D423" s="0">
         <x:v>0</x:v>
@@ -6002,7 +6971,7 @@
     </x:row>
     <x:row r="424" spans="1:8">
       <x:c r="A424" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="D424" s="0">
         <x:v>0</x:v>
@@ -6010,7 +6979,7 @@
     </x:row>
     <x:row r="425" spans="1:8">
       <x:c r="A425" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="D425" s="0">
         <x:v>0</x:v>
@@ -6018,7 +6987,7 @@
     </x:row>
     <x:row r="426" spans="1:8">
       <x:c r="A426" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="D426" s="0">
         <x:v>0</x:v>
@@ -6026,7 +6995,7 @@
     </x:row>
     <x:row r="427" spans="1:8">
       <x:c r="A427" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="D427" s="0">
         <x:v>0</x:v>
@@ -6034,7 +7003,7 @@
     </x:row>
     <x:row r="428" spans="1:8">
       <x:c r="A428" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="D428" s="0">
         <x:v>0</x:v>
@@ -6042,7 +7011,7 @@
     </x:row>
     <x:row r="429" spans="1:8">
       <x:c r="A429" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="D429" s="0">
         <x:v>0</x:v>
@@ -6050,7 +7019,7 @@
     </x:row>
     <x:row r="430" spans="1:8">
       <x:c r="A430" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="D430" s="0">
         <x:v>0</x:v>
@@ -6058,7 +7027,7 @@
     </x:row>
     <x:row r="431" spans="1:8">
       <x:c r="A431" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="D431" s="0">
         <x:v>0</x:v>
@@ -6066,7 +7035,7 @@
     </x:row>
     <x:row r="432" spans="1:8">
       <x:c r="A432" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="D432" s="0">
         <x:v>0</x:v>
@@ -6074,7 +7043,7 @@
     </x:row>
     <x:row r="433" spans="1:8">
       <x:c r="A433" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="D433" s="0">
         <x:v>0</x:v>
@@ -6082,7 +7051,7 @@
     </x:row>
     <x:row r="434" spans="1:8">
       <x:c r="A434" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="D434" s="0">
         <x:v>0</x:v>
@@ -6090,7 +7059,7 @@
     </x:row>
     <x:row r="435" spans="1:8">
       <x:c r="A435" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="D435" s="0">
         <x:v>0</x:v>
@@ -6098,7 +7067,7 @@
     </x:row>
     <x:row r="436" spans="1:8">
       <x:c r="A436" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="D436" s="0">
         <x:v>0</x:v>
@@ -6106,7 +7075,7 @@
     </x:row>
     <x:row r="437" spans="1:8">
       <x:c r="A437" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="D437" s="0">
         <x:v>0</x:v>
@@ -6114,7 +7083,7 @@
     </x:row>
     <x:row r="438" spans="1:8">
       <x:c r="A438" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="D438" s="0">
         <x:v>0</x:v>
@@ -6122,7 +7091,7 @@
     </x:row>
     <x:row r="439" spans="1:8">
       <x:c r="A439" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="D439" s="0">
         <x:v>0</x:v>
@@ -6130,7 +7099,7 @@
     </x:row>
     <x:row r="440" spans="1:8">
       <x:c r="A440" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="D440" s="0">
         <x:v>0</x:v>
@@ -6138,7 +7107,7 @@
     </x:row>
     <x:row r="441" spans="1:8">
       <x:c r="A441" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="D441" s="0">
         <x:v>0</x:v>
@@ -6146,7 +7115,7 @@
     </x:row>
     <x:row r="442" spans="1:8">
       <x:c r="A442" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="D442" s="0">
         <x:v>0</x:v>
@@ -6154,7 +7123,7 @@
     </x:row>
     <x:row r="443" spans="1:8">
       <x:c r="A443" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="D443" s="0">
         <x:v>0</x:v>
@@ -6162,7 +7131,7 @@
     </x:row>
     <x:row r="444" spans="1:8">
       <x:c r="A444" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="D444" s="0">
         <x:v>0</x:v>
@@ -6170,7 +7139,7 @@
     </x:row>
     <x:row r="445" spans="1:8">
       <x:c r="A445" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="D445" s="0">
         <x:v>0</x:v>
@@ -6178,7 +7147,7 @@
     </x:row>
     <x:row r="446" spans="1:8">
       <x:c r="A446" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="D446" s="0">
         <x:v>0</x:v>
@@ -6186,7 +7155,7 @@
     </x:row>
     <x:row r="447" spans="1:8">
       <x:c r="A447" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="D447" s="0">
         <x:v>0</x:v>
@@ -6194,7 +7163,7 @@
     </x:row>
     <x:row r="448" spans="1:8">
       <x:c r="A448" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="D448" s="0">
         <x:v>0</x:v>
@@ -6202,7 +7171,7 @@
     </x:row>
     <x:row r="449" spans="1:8">
       <x:c r="A449" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="D449" s="0">
         <x:v>0</x:v>
@@ -6210,7 +7179,7 @@
     </x:row>
     <x:row r="450" spans="1:8">
       <x:c r="A450" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="D450" s="0">
         <x:v>0</x:v>
@@ -6218,7 +7187,7 @@
     </x:row>
     <x:row r="451" spans="1:8">
       <x:c r="A451" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="D451" s="0">
         <x:v>0</x:v>
@@ -6226,7 +7195,7 @@
     </x:row>
     <x:row r="452" spans="1:8">
       <x:c r="A452" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="D452" s="0">
         <x:v>0</x:v>
@@ -6234,7 +7203,7 @@
     </x:row>
     <x:row r="453" spans="1:8">
       <x:c r="A453" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="D453" s="0">
         <x:v>0</x:v>
@@ -6242,7 +7211,7 @@
     </x:row>
     <x:row r="454" spans="1:8">
       <x:c r="A454" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="D454" s="0">
         <x:v>0</x:v>
@@ -6250,7 +7219,7 @@
     </x:row>
     <x:row r="455" spans="1:8">
       <x:c r="A455" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="D455" s="0">
         <x:v>0</x:v>
@@ -6258,7 +7227,7 @@
     </x:row>
     <x:row r="456" spans="1:8">
       <x:c r="A456" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="D456" s="0">
         <x:v>0</x:v>
@@ -6266,7 +7235,7 @@
     </x:row>
     <x:row r="457" spans="1:8">
       <x:c r="A457" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="D457" s="0">
         <x:v>0</x:v>
@@ -6274,7 +7243,7 @@
     </x:row>
     <x:row r="458" spans="1:8">
       <x:c r="A458" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="D458" s="0">
         <x:v>0</x:v>
@@ -6282,7 +7251,7 @@
     </x:row>
     <x:row r="459" spans="1:8">
       <x:c r="A459" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="D459" s="0">
         <x:v>0</x:v>
@@ -6290,7 +7259,7 @@
     </x:row>
     <x:row r="460" spans="1:8">
       <x:c r="A460" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="D460" s="0">
         <x:v>0</x:v>
@@ -6298,7 +7267,7 @@
     </x:row>
     <x:row r="461" spans="1:8">
       <x:c r="A461" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="D461" s="0">
         <x:v>0</x:v>
@@ -6306,7 +7275,7 @@
     </x:row>
     <x:row r="462" spans="1:8">
       <x:c r="A462" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="D462" s="0">
         <x:v>0</x:v>
@@ -6314,7 +7283,7 @@
     </x:row>
     <x:row r="463" spans="1:8">
       <x:c r="A463" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="D463" s="0">
         <x:v>0</x:v>
@@ -6322,7 +7291,7 @@
     </x:row>
     <x:row r="464" spans="1:8">
       <x:c r="A464" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="D464" s="0">
         <x:v>0</x:v>
@@ -6330,7 +7299,7 @@
     </x:row>
     <x:row r="465" spans="1:8">
       <x:c r="A465" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="D465" s="0">
         <x:v>0</x:v>
@@ -6338,7 +7307,7 @@
     </x:row>
     <x:row r="466" spans="1:8">
       <x:c r="A466" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="D466" s="0">
         <x:v>0</x:v>
@@ -6346,7 +7315,7 @@
     </x:row>
     <x:row r="467" spans="1:8">
       <x:c r="A467" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="D467" s="0">
         <x:v>0</x:v>
@@ -6354,7 +7323,7 @@
     </x:row>
     <x:row r="468" spans="1:8">
       <x:c r="A468" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="D468" s="0">
         <x:v>0</x:v>
@@ -6362,7 +7331,7 @@
     </x:row>
     <x:row r="469" spans="1:8">
       <x:c r="A469" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="D469" s="0">
         <x:v>0</x:v>
@@ -6370,7 +7339,7 @@
     </x:row>
     <x:row r="470" spans="1:8">
       <x:c r="A470" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="D470" s="0">
         <x:v>0</x:v>
@@ -6378,7 +7347,7 @@
     </x:row>
     <x:row r="471" spans="1:8">
       <x:c r="A471" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="D471" s="0">
         <x:v>0</x:v>
@@ -6386,7 +7355,7 @@
     </x:row>
     <x:row r="472" spans="1:8">
       <x:c r="A472" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="D472" s="0">
         <x:v>0</x:v>
@@ -6394,7 +7363,7 @@
     </x:row>
     <x:row r="473" spans="1:8">
       <x:c r="A473" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="D473" s="0">
         <x:v>0</x:v>
@@ -6402,7 +7371,7 @@
     </x:row>
     <x:row r="474" spans="1:8">
       <x:c r="A474" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="D474" s="0">
         <x:v>0</x:v>
@@ -6410,7 +7379,7 @@
     </x:row>
     <x:row r="475" spans="1:8">
       <x:c r="A475" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="D475" s="0">
         <x:v>0</x:v>
@@ -6418,7 +7387,7 @@
     </x:row>
     <x:row r="476" spans="1:8">
       <x:c r="A476" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="D476" s="0">
         <x:v>0</x:v>
@@ -6426,7 +7395,7 @@
     </x:row>
     <x:row r="477" spans="1:8">
       <x:c r="A477" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="D477" s="0">
         <x:v>0</x:v>
@@ -6434,7 +7403,7 @@
     </x:row>
     <x:row r="478" spans="1:8">
       <x:c r="A478" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="D478" s="0">
         <x:v>0</x:v>
@@ -6442,7 +7411,7 @@
     </x:row>
     <x:row r="479" spans="1:8">
       <x:c r="A479" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="D479" s="0">
         <x:v>0</x:v>
@@ -6450,7 +7419,7 @@
     </x:row>
     <x:row r="480" spans="1:8">
       <x:c r="A480" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="D480" s="0">
         <x:v>0</x:v>
@@ -6458,7 +7427,7 @@
     </x:row>
     <x:row r="481" spans="1:8">
       <x:c r="A481" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="D481" s="0">
         <x:v>0</x:v>
@@ -6466,7 +7435,7 @@
     </x:row>
     <x:row r="482" spans="1:8">
       <x:c r="A482" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="D482" s="0">
         <x:v>0</x:v>
@@ -6474,7 +7443,7 @@
     </x:row>
     <x:row r="483" spans="1:8">
       <x:c r="A483" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="D483" s="0">
         <x:v>0</x:v>
@@ -6482,7 +7451,7 @@
     </x:row>
     <x:row r="484" spans="1:8">
       <x:c r="A484" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="D484" s="0">
         <x:v>0</x:v>
@@ -6490,7 +7459,7 @@
     </x:row>
     <x:row r="485" spans="1:8">
       <x:c r="A485" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="D485" s="0">
         <x:v>0</x:v>
@@ -6498,7 +7467,7 @@
     </x:row>
     <x:row r="486" spans="1:8">
       <x:c r="A486" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="D486" s="0">
         <x:v>0</x:v>
@@ -6506,7 +7475,7 @@
     </x:row>
     <x:row r="487" spans="1:8">
       <x:c r="A487" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="D487" s="0">
         <x:v>0</x:v>
@@ -6514,7 +7483,7 @@
     </x:row>
     <x:row r="488" spans="1:8">
       <x:c r="A488" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="D488" s="0">
         <x:v>0</x:v>
@@ -6522,7 +7491,7 @@
     </x:row>
     <x:row r="489" spans="1:8">
       <x:c r="A489" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="D489" s="0">
         <x:v>0</x:v>
@@ -6530,7 +7499,7 @@
     </x:row>
     <x:row r="490" spans="1:8">
       <x:c r="A490" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="D490" s="0">
         <x:v>0</x:v>
@@ -6538,7 +7507,7 @@
     </x:row>
     <x:row r="491" spans="1:8">
       <x:c r="A491" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="D491" s="0">
         <x:v>0</x:v>
@@ -6546,7 +7515,7 @@
     </x:row>
     <x:row r="492" spans="1:8">
       <x:c r="A492" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="D492" s="0">
         <x:v>0</x:v>
@@ -6554,7 +7523,7 @@
     </x:row>
     <x:row r="493" spans="1:8">
       <x:c r="A493" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="D493" s="0">
         <x:v>0</x:v>
@@ -6562,7 +7531,7 @@
     </x:row>
     <x:row r="494" spans="1:8">
       <x:c r="A494" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="D494" s="0">
         <x:v>0</x:v>
@@ -6570,7 +7539,7 @@
     </x:row>
     <x:row r="495" spans="1:8">
       <x:c r="A495" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="D495" s="0">
         <x:v>0</x:v>
@@ -6578,7 +7547,7 @@
     </x:row>
     <x:row r="496" spans="1:8">
       <x:c r="A496" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="D496" s="0">
         <x:v>0</x:v>
@@ -6586,7 +7555,7 @@
     </x:row>
     <x:row r="497" spans="1:8">
       <x:c r="A497" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="D497" s="0">
         <x:v>0</x:v>
@@ -6594,7 +7563,7 @@
     </x:row>
     <x:row r="498" spans="1:8">
       <x:c r="A498" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="D498" s="0">
         <x:v>0</x:v>
@@ -6602,7 +7571,7 @@
     </x:row>
     <x:row r="499" spans="1:8">
       <x:c r="A499" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="D499" s="0">
         <x:v>0</x:v>
@@ -6610,7 +7579,7 @@
     </x:row>
     <x:row r="500" spans="1:8">
       <x:c r="A500" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="D500" s="0">
         <x:v>0</x:v>
@@ -6618,7 +7587,7 @@
     </x:row>
     <x:row r="501" spans="1:8">
       <x:c r="A501" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="D501" s="0">
         <x:v>0</x:v>
@@ -6626,7 +7595,7 @@
     </x:row>
     <x:row r="502" spans="1:8">
       <x:c r="A502" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="D502" s="0">
         <x:v>0</x:v>
@@ -6634,7 +7603,7 @@
     </x:row>
     <x:row r="503" spans="1:8">
       <x:c r="A503" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="D503" s="0">
         <x:v>0</x:v>
@@ -6642,7 +7611,7 @@
     </x:row>
     <x:row r="504" spans="1:8">
       <x:c r="A504" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="D504" s="0">
         <x:v>0</x:v>
@@ -6650,7 +7619,7 @@
     </x:row>
     <x:row r="505" spans="1:8">
       <x:c r="A505" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="D505" s="0">
         <x:v>0</x:v>
@@ -6681,12 +7650,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6718,12 +7687,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" ht="30" customHeight="1">
       <x:c r="A2" s="1" t="s">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/CorrLink.xlsx
+++ b/Data/CorrLink.xlsx
@@ -5,10 +5,10 @@
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SybrosTech\CorrLinks\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SybrosTech\CorrLinks New\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31643A0-3F8C-4147-A805-CBB11378415A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98681619-5CCB-487D-AC26-2002BB41883F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -43,7 +43,7 @@
     <x:t>April 2025</x:t>
   </x:si>
   <x:si>
-    <x:t>04/18/2025</x:t>
+    <x:t>04/28/2025</x:t>
   </x:si>
   <x:si>
     <x:t>Newsletter Group 002</x:t>
@@ -376,9 +376,6 @@
     <x:t>Newsletter Group 111</x:t>
   </x:si>
   <x:si>
-    <x:t>04/21/2025</x:t>
-  </x:si>
-  <x:si>
     <x:t>Newsletter Group 112</x:t>
   </x:si>
   <x:si>
@@ -1556,6 +1553,36 @@
   </x:si>
   <x:si>
     <x:t>Newsletter Group 504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Newsletter Group 505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Newsletter Group 506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Newsletter Group 507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Newsletter Group 508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Newsletter Group 509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Newsletter Group 510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Newsletter Group 511</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Newsletter Group 512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Newsletter Group 513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Newsletter Group 514</x:t>
   </x:si>
   <x:si>
     <x:t>Subject</x:t>
@@ -1939,10 +1966,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D505"/>
+  <x:dimension ref="A1:D515"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <x:selection activeCell="H180" sqref="H180"/>
+    <x:sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <x:selection activeCell="B103" sqref="B103 B103:D103"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1953,7 +1980,7 @@
     <x:col min="4" max="4" width="5.886719" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8" ht="20.1" customHeight="1">
+    <x:row r="1" spans="1:4" ht="20.1" customHeight="1">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1967,7 +1994,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8">
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1981,7 +2008,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:8">
+    <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1995,7 +2022,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:8">
+    <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
@@ -2009,7 +2036,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:8">
+    <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -2023,7 +2050,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:8">
+    <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -2037,7 +2064,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:8">
+    <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
@@ -2051,7 +2078,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:8">
+    <x:row r="8" spans="1:4">
       <x:c r="A8" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
@@ -2065,7 +2092,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:8">
+    <x:row r="9" spans="1:4">
       <x:c r="A9" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -2079,7 +2106,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:8">
+    <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -2093,7 +2120,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:8">
+    <x:row r="11" spans="1:4">
       <x:c r="A11" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -2107,7 +2134,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:8">
+    <x:row r="12" spans="1:4">
       <x:c r="A12" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -2121,7 +2148,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:8">
+    <x:row r="13" spans="1:4">
       <x:c r="A13" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
@@ -2135,7 +2162,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:8">
+    <x:row r="14" spans="1:4">
       <x:c r="A14" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -2149,7 +2176,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:8">
+    <x:row r="15" spans="1:4">
       <x:c r="A15" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
@@ -2163,7 +2190,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:8">
+    <x:row r="16" spans="1:4">
       <x:c r="A16" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2177,7 +2204,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:8">
+    <x:row r="17" spans="1:4">
       <x:c r="A17" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -2191,7 +2218,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:8">
+    <x:row r="18" spans="1:4">
       <x:c r="A18" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -2205,7 +2232,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:8">
+    <x:row r="19" spans="1:4">
       <x:c r="A19" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
@@ -2219,7 +2246,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:8">
+    <x:row r="20" spans="1:4">
       <x:c r="A20" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -2233,7 +2260,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:8">
+    <x:row r="21" spans="1:4">
       <x:c r="A21" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -2247,7 +2274,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:8">
+    <x:row r="22" spans="1:4">
       <x:c r="A22" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
@@ -2261,7 +2288,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:8">
+    <x:row r="23" spans="1:4">
       <x:c r="A23" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
@@ -2275,7 +2302,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:8">
+    <x:row r="24" spans="1:4">
       <x:c r="A24" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
@@ -2289,7 +2316,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:8">
+    <x:row r="25" spans="1:4">
       <x:c r="A25" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
@@ -2303,7 +2330,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:8">
+    <x:row r="26" spans="1:4">
       <x:c r="A26" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
@@ -2317,7 +2344,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:8">
+    <x:row r="27" spans="1:4">
       <x:c r="A27" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -2331,7 +2358,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:8">
+    <x:row r="28" spans="1:4">
       <x:c r="A28" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
@@ -2345,7 +2372,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:8">
+    <x:row r="29" spans="1:4">
       <x:c r="A29" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -2359,7 +2386,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:8">
+    <x:row r="30" spans="1:4">
       <x:c r="A30" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
@@ -2373,7 +2400,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:8">
+    <x:row r="31" spans="1:4">
       <x:c r="A31" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -2387,7 +2414,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:8">
+    <x:row r="32" spans="1:4">
       <x:c r="A32" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
@@ -2401,7 +2428,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:8">
+    <x:row r="33" spans="1:4">
       <x:c r="A33" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -2415,7 +2442,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:8">
+    <x:row r="34" spans="1:4">
       <x:c r="A34" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -2429,7 +2456,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:8">
+    <x:row r="35" spans="1:4">
       <x:c r="A35" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
@@ -2443,7 +2470,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:8">
+    <x:row r="36" spans="1:4">
       <x:c r="A36" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
@@ -2457,7 +2484,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:8">
+    <x:row r="37" spans="1:4">
       <x:c r="A37" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
@@ -2471,7 +2498,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:8">
+    <x:row r="38" spans="1:4">
       <x:c r="A38" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
@@ -2485,7 +2512,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:8">
+    <x:row r="39" spans="1:4">
       <x:c r="A39" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
@@ -2499,7 +2526,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:8">
+    <x:row r="40" spans="1:4">
       <x:c r="A40" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
@@ -2513,7 +2540,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:8">
+    <x:row r="41" spans="1:4">
       <x:c r="A41" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
@@ -2527,7 +2554,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:8">
+    <x:row r="42" spans="1:4">
       <x:c r="A42" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
@@ -2541,7 +2568,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:8">
+    <x:row r="43" spans="1:4">
       <x:c r="A43" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -2555,7 +2582,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:8">
+    <x:row r="44" spans="1:4">
       <x:c r="A44" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
@@ -2569,7 +2596,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:8">
+    <x:row r="45" spans="1:4">
       <x:c r="A45" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
@@ -2583,7 +2610,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:8">
+    <x:row r="46" spans="1:4">
       <x:c r="A46" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
@@ -2597,7 +2624,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:8">
+    <x:row r="47" spans="1:4">
       <x:c r="A47" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
@@ -2611,7 +2638,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:8">
+    <x:row r="48" spans="1:4">
       <x:c r="A48" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
@@ -2625,7 +2652,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:8">
+    <x:row r="49" spans="1:4">
       <x:c r="A49" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
@@ -2639,7 +2666,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:8">
+    <x:row r="50" spans="1:4">
       <x:c r="A50" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
@@ -2653,7 +2680,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:8">
+    <x:row r="51" spans="1:4">
       <x:c r="A51" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
@@ -2667,7 +2694,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:8">
+    <x:row r="52" spans="1:4">
       <x:c r="A52" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
@@ -2681,7 +2708,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:8">
+    <x:row r="53" spans="1:4">
       <x:c r="A53" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
@@ -2695,7 +2722,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:8">
+    <x:row r="54" spans="1:4">
       <x:c r="A54" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
@@ -2709,7 +2736,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:8">
+    <x:row r="55" spans="1:4">
       <x:c r="A55" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
@@ -2723,7 +2750,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:8">
+    <x:row r="56" spans="1:4">
       <x:c r="A56" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
@@ -2737,7 +2764,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:8">
+    <x:row r="57" spans="1:4">
       <x:c r="A57" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
@@ -2751,7 +2778,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:8">
+    <x:row r="58" spans="1:4">
       <x:c r="A58" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
@@ -2765,7 +2792,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:8">
+    <x:row r="59" spans="1:4">
       <x:c r="A59" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
@@ -2779,7 +2806,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:8">
+    <x:row r="60" spans="1:4">
       <x:c r="A60" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
@@ -2793,7 +2820,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:8">
+    <x:row r="61" spans="1:4">
       <x:c r="A61" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
@@ -2807,7 +2834,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:8">
+    <x:row r="62" spans="1:4">
       <x:c r="A62" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
@@ -2821,7 +2848,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:8">
+    <x:row r="63" spans="1:4">
       <x:c r="A63" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
@@ -2835,7 +2862,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:8">
+    <x:row r="64" spans="1:4">
       <x:c r="A64" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
@@ -2849,7 +2876,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:8">
+    <x:row r="65" spans="1:4">
       <x:c r="A65" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
@@ -2863,7 +2890,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:8">
+    <x:row r="66" spans="1:4">
       <x:c r="A66" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
@@ -2877,7 +2904,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:8">
+    <x:row r="67" spans="1:4">
       <x:c r="A67" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
@@ -2891,7 +2918,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:8">
+    <x:row r="68" spans="1:4">
       <x:c r="A68" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
@@ -2905,7 +2932,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:8">
+    <x:row r="69" spans="1:4">
       <x:c r="A69" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
@@ -2919,7 +2946,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:8">
+    <x:row r="70" spans="1:4">
       <x:c r="A70" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
@@ -2933,7 +2960,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:8">
+    <x:row r="71" spans="1:4">
       <x:c r="A71" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
@@ -2947,7 +2974,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:8">
+    <x:row r="72" spans="1:4">
       <x:c r="A72" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
@@ -2961,7 +2988,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:8">
+    <x:row r="73" spans="1:4">
       <x:c r="A73" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
@@ -2975,7 +3002,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:8">
+    <x:row r="74" spans="1:4">
       <x:c r="A74" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
@@ -2989,7 +3016,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:8">
+    <x:row r="75" spans="1:4">
       <x:c r="A75" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
@@ -3003,7 +3030,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:8">
+    <x:row r="76" spans="1:4">
       <x:c r="A76" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
@@ -3017,7 +3044,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:8">
+    <x:row r="77" spans="1:4">
       <x:c r="A77" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
@@ -3031,7 +3058,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:8">
+    <x:row r="78" spans="1:4">
       <x:c r="A78" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
@@ -3045,7 +3072,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:8">
+    <x:row r="79" spans="1:4">
       <x:c r="A79" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
@@ -3059,7 +3086,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:8">
+    <x:row r="80" spans="1:4">
       <x:c r="A80" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
@@ -3073,7 +3100,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:8">
+    <x:row r="81" spans="1:4">
       <x:c r="A81" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
@@ -3087,7 +3114,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:8">
+    <x:row r="82" spans="1:4">
       <x:c r="A82" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
@@ -3101,7 +3128,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:8">
+    <x:row r="83" spans="1:4">
       <x:c r="A83" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
@@ -3115,7 +3142,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:8">
+    <x:row r="84" spans="1:4">
       <x:c r="A84" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
@@ -3129,7 +3156,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:8">
+    <x:row r="85" spans="1:4">
       <x:c r="A85" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
@@ -3143,7 +3170,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:8">
+    <x:row r="86" spans="1:4">
       <x:c r="A86" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
@@ -3157,7 +3184,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:8">
+    <x:row r="87" spans="1:4">
       <x:c r="A87" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
@@ -3171,7 +3198,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:8">
+    <x:row r="88" spans="1:4">
       <x:c r="A88" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
@@ -3185,7 +3212,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:8">
+    <x:row r="89" spans="1:4">
       <x:c r="A89" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
@@ -3199,7 +3226,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:8">
+    <x:row r="90" spans="1:4">
       <x:c r="A90" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
@@ -3213,7 +3240,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:8">
+    <x:row r="91" spans="1:4">
       <x:c r="A91" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
@@ -3227,7 +3254,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:8">
+    <x:row r="92" spans="1:4">
       <x:c r="A92" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
@@ -3241,7 +3268,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:8">
+    <x:row r="93" spans="1:4">
       <x:c r="A93" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
@@ -3255,7 +3282,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:8">
+    <x:row r="94" spans="1:4">
       <x:c r="A94" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
@@ -3269,7 +3296,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:8">
+    <x:row r="95" spans="1:4">
       <x:c r="A95" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
@@ -3283,7 +3310,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:8">
+    <x:row r="96" spans="1:4">
       <x:c r="A96" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
@@ -3297,7 +3324,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:8">
+    <x:row r="97" spans="1:4">
       <x:c r="A97" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
@@ -3311,7 +3338,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:8">
+    <x:row r="98" spans="1:4">
       <x:c r="A98" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
@@ -3325,7 +3352,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:8">
+    <x:row r="99" spans="1:4">
       <x:c r="A99" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
@@ -3339,7 +3366,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:8">
+    <x:row r="100" spans="1:4">
       <x:c r="A100" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
@@ -3353,7 +3380,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:8">
+    <x:row r="101" spans="1:4">
       <x:c r="A101" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
@@ -3367,7 +3394,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:8">
+    <x:row r="102" spans="1:4">
       <x:c r="A102" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
@@ -3381,7 +3408,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:8">
+    <x:row r="103" spans="1:4">
       <x:c r="A103" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
@@ -3395,7 +3422,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:8">
+    <x:row r="104" spans="1:4">
       <x:c r="A104" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
@@ -3409,7 +3436,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:8">
+    <x:row r="105" spans="1:4">
       <x:c r="A105" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
@@ -3423,7 +3450,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:8">
+    <x:row r="106" spans="1:4">
       <x:c r="A106" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
@@ -3437,7 +3464,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="107" spans="1:8">
+    <x:row r="107" spans="1:4">
       <x:c r="A107" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
@@ -3451,7 +3478,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:8">
+    <x:row r="108" spans="1:4">
       <x:c r="A108" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
@@ -3465,7 +3492,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:8">
+    <x:row r="109" spans="1:4">
       <x:c r="A109" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
@@ -3479,7 +3506,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="110" spans="1:8">
+    <x:row r="110" spans="1:4">
       <x:c r="A110" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
@@ -3493,7 +3520,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="111" spans="1:8">
+    <x:row r="111" spans="1:4">
       <x:c r="A111" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
@@ -3507,7 +3534,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="112" spans="1:8">
+    <x:row r="112" spans="1:4">
       <x:c r="A112" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
@@ -3515,4113 +3542,3329 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D112" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:4">
+      <x:c r="A113" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="D112" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="113" spans="1:8">
-      <x:c r="A113" s="0" t="s">
+      <x:c r="B113" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C113" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D113" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:4">
+      <x:c r="A114" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="B113" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C113" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D113" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="114" spans="1:8">
-      <x:c r="A114" s="0" t="s">
+      <x:c r="B114" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C114" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D114" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:4">
+      <x:c r="A115" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="B114" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C114" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D114" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="115" spans="1:8">
-      <x:c r="A115" s="0" t="s">
+      <x:c r="B115" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C115" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D115" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:4">
+      <x:c r="A116" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="B115" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C115" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D115" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="116" spans="1:8">
-      <x:c r="A116" s="0" t="s">
+      <x:c r="B116" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C116" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D116" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:4">
+      <x:c r="A117" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="B116" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C116" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D116" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="117" spans="1:8">
-      <x:c r="A117" s="0" t="s">
+      <x:c r="B117" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C117" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D117" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:4">
+      <x:c r="A118" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="B117" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C117" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D117" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="118" spans="1:8">
-      <x:c r="A118" s="0" t="s">
+      <x:c r="B118" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C118" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D118" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:4">
+      <x:c r="A119" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="B118" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C118" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D118" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="119" spans="1:8">
-      <x:c r="A119" s="0" t="s">
+      <x:c r="B119" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C119" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D119" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:4">
+      <x:c r="A120" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="B119" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C119" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D119" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="120" spans="1:8">
-      <x:c r="A120" s="0" t="s">
+      <x:c r="B120" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C120" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D120" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:4">
+      <x:c r="A121" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="B120" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C120" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D120" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="121" spans="1:8">
-      <x:c r="A121" s="0" t="s">
+      <x:c r="B121" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C121" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D121" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:4">
+      <x:c r="A122" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="B121" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C121" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D121" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="122" spans="1:8">
-      <x:c r="A122" s="0" t="s">
+      <x:c r="B122" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C122" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D122" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:4">
+      <x:c r="A123" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="B122" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C122" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D122" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="123" spans="1:8">
-      <x:c r="A123" s="0" t="s">
+      <x:c r="B123" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C123" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D123" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:4">
+      <x:c r="A124" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="B123" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C123" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D123" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="124" spans="1:8">
-      <x:c r="A124" s="0" t="s">
+      <x:c r="B124" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C124" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D124" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:4">
+      <x:c r="A125" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="B124" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C124" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D124" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="125" spans="1:8">
-      <x:c r="A125" s="0" t="s">
+      <x:c r="B125" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C125" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D125" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:4">
+      <x:c r="A126" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="B125" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C125" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D125" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="126" spans="1:8">
-      <x:c r="A126" s="0" t="s">
+      <x:c r="B126" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C126" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D126" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:4">
+      <x:c r="A127" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="B126" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C126" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D126" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="127" spans="1:8">
-      <x:c r="A127" s="0" t="s">
+      <x:c r="B127" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C127" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D127" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:4">
+      <x:c r="A128" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="B127" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C127" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D127" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="128" spans="1:8">
-      <x:c r="A128" s="0" t="s">
+      <x:c r="B128" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C128" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D128" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:4">
+      <x:c r="A129" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="B128" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C128" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D128" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="129" spans="1:8">
-      <x:c r="A129" s="0" t="s">
+      <x:c r="D129" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:4">
+      <x:c r="A130" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="B129" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C129" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D129" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="130" spans="1:8">
-      <x:c r="A130" s="0" t="s">
+      <x:c r="D130" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:4">
+      <x:c r="A131" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="B130" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C130" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D130" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="131" spans="1:8">
-      <x:c r="A131" s="0" t="s">
+      <x:c r="D131" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:4">
+      <x:c r="A132" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="B131" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C131" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D131" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="132" spans="1:8">
-      <x:c r="A132" s="0" t="s">
+      <x:c r="D132" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:4">
+      <x:c r="A133" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="B132" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C132" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D132" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="133" spans="1:8">
-      <x:c r="A133" s="0" t="s">
+      <x:c r="D133" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:4">
+      <x:c r="A134" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="B133" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C133" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D133" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="134" spans="1:8">
-      <x:c r="A134" s="0" t="s">
+      <x:c r="D134" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:4">
+      <x:c r="A135" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="B134" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C134" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D134" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="135" spans="1:8">
-      <x:c r="A135" s="0" t="s">
+      <x:c r="D135" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:4">
+      <x:c r="A136" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="B135" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C135" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D135" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="136" spans="1:8">
-      <x:c r="A136" s="0" t="s">
+      <x:c r="D136" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:4">
+      <x:c r="A137" s="0" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="B136" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C136" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D136" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="137" spans="1:8">
-      <x:c r="A137" s="0" t="s">
+      <x:c r="D137" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:4">
+      <x:c r="A138" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="B137" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C137" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D137" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="138" spans="1:8">
-      <x:c r="A138" s="0" t="s">
+      <x:c r="D138" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:4">
+      <x:c r="A139" s="0" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="B138" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C138" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D138" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="139" spans="1:8">
-      <x:c r="A139" s="0" t="s">
+      <x:c r="D139" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:4">
+      <x:c r="A140" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="B139" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C139" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D139" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="140" spans="1:8">
-      <x:c r="A140" s="0" t="s">
+      <x:c r="D140" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:4">
+      <x:c r="A141" s="0" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="B140" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C140" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D140" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="141" spans="1:8">
-      <x:c r="A141" s="0" t="s">
+      <x:c r="D141" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:4">
+      <x:c r="A142" s="0" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="B141" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C141" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D141" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="142" spans="1:8">
-      <x:c r="A142" s="0" t="s">
+      <x:c r="D142" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:4">
+      <x:c r="A143" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="B142" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C142" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D142" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="143" spans="1:8">
-      <x:c r="A143" s="0" t="s">
+      <x:c r="D143" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:4">
+      <x:c r="A144" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="B143" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C143" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D143" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="144" spans="1:8">
-      <x:c r="A144" s="0" t="s">
+      <x:c r="D144" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:4">
+      <x:c r="A145" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="B144" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C144" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D144" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="145" spans="1:8">
-      <x:c r="A145" s="0" t="s">
+      <x:c r="D145" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:4">
+      <x:c r="A146" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="B145" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C145" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D145" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="146" spans="1:8">
-      <x:c r="A146" s="0" t="s">
+      <x:c r="D146" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:4">
+      <x:c r="A147" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="B146" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C146" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D146" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="147" spans="1:8">
-      <x:c r="A147" s="0" t="s">
+      <x:c r="D147" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:4">
+      <x:c r="A148" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="B147" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C147" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D147" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="148" spans="1:8">
-      <x:c r="A148" s="0" t="s">
+      <x:c r="D148" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:4">
+      <x:c r="A149" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="B148" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C148" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D148" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="149" spans="1:8">
-      <x:c r="A149" s="0" t="s">
+      <x:c r="D149" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:4">
+      <x:c r="A150" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="B149" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C149" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D149" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="150" spans="1:8">
-      <x:c r="A150" s="0" t="s">
+      <x:c r="D150" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:4">
+      <x:c r="A151" s="0" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="B150" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C150" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D150" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="151" spans="1:8">
-      <x:c r="A151" s="0" t="s">
+      <x:c r="D151" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:4">
+      <x:c r="A152" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="B151" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C151" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D151" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="152" spans="1:8">
-      <x:c r="A152" s="0" t="s">
+      <x:c r="D152" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:4">
+      <x:c r="A153" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="B152" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C152" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D152" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="153" spans="1:8">
-      <x:c r="A153" s="0" t="s">
+      <x:c r="D153" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:4">
+      <x:c r="A154" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="B153" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C153" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D153" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="154" spans="1:8">
-      <x:c r="A154" s="0" t="s">
+      <x:c r="D154" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:4">
+      <x:c r="A155" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="B154" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C154" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D154" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="155" spans="1:8">
-      <x:c r="A155" s="0" t="s">
+      <x:c r="D155" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:4">
+      <x:c r="A156" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="B155" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C155" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D155" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="156" spans="1:8">
-      <x:c r="A156" s="0" t="s">
+      <x:c r="D156" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:4">
+      <x:c r="A157" s="0" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="B156" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C156" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D156" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="157" spans="1:8">
-      <x:c r="A157" s="0" t="s">
+      <x:c r="D157" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:4">
+      <x:c r="A158" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="B157" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C157" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D157" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="158" spans="1:8">
-      <x:c r="A158" s="0" t="s">
+      <x:c r="D158" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:4">
+      <x:c r="A159" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="B158" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C158" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D158" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="159" spans="1:8">
-      <x:c r="A159" s="0" t="s">
+      <x:c r="D159" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:4">
+      <x:c r="A160" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="B159" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C159" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D159" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="160" spans="1:8">
-      <x:c r="A160" s="0" t="s">
+      <x:c r="D160" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:4">
+      <x:c r="A161" s="0" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="B160" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C160" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D160" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="161" spans="1:8">
-      <x:c r="A161" s="0" t="s">
+      <x:c r="D161" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:4">
+      <x:c r="A162" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="B161" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C161" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D161" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="162" spans="1:8">
-      <x:c r="A162" s="0" t="s">
+      <x:c r="D162" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:4">
+      <x:c r="A163" s="0" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="B162" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C162" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D162" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="163" spans="1:8">
-      <x:c r="A163" s="0" t="s">
+      <x:c r="D163" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:4">
+      <x:c r="A164" s="0" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="B163" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C163" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D163" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="164" spans="1:8">
-      <x:c r="A164" s="0" t="s">
+      <x:c r="D164" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:4">
+      <x:c r="A165" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="B164" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C164" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D164" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="165" spans="1:8">
-      <x:c r="A165" s="0" t="s">
+      <x:c r="D165" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:4">
+      <x:c r="A166" s="0" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="B165" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C165" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D165" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="166" spans="1:8">
-      <x:c r="A166" s="0" t="s">
+      <x:c r="D166" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:4">
+      <x:c r="A167" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="B166" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C166" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D166" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="167" spans="1:8">
-      <x:c r="A167" s="0" t="s">
+      <x:c r="D167" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:4">
+      <x:c r="A168" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="B167" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C167" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D167" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="168" spans="1:8">
-      <x:c r="A168" s="0" t="s">
+      <x:c r="D168" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="1:4">
+      <x:c r="A169" s="0" t="s">
         <x:v>173</x:v>
       </x:c>
-      <x:c r="B168" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C168" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D168" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="169" spans="1:8">
-      <x:c r="A169" s="0" t="s">
+      <x:c r="D169" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="1:4">
+      <x:c r="A170" s="0" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B169" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C169" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D169" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="170" spans="1:8">
-      <x:c r="A170" s="0" t="s">
+      <x:c r="D170" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" spans="1:4">
+      <x:c r="A171" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="B170" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C170" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D170" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="171" spans="1:8">
-      <x:c r="A171" s="0" t="s">
+      <x:c r="D171" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="1:4">
+      <x:c r="A172" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="B171" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C171" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D171" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="172" spans="1:8">
-      <x:c r="A172" s="0" t="s">
+      <x:c r="D172" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="1:4">
+      <x:c r="A173" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="B172" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C172" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D172" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="173" spans="1:8">
-      <x:c r="A173" s="0" t="s">
+      <x:c r="D173" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="1:4">
+      <x:c r="A174" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="B173" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C173" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D173" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="174" spans="1:8">
-      <x:c r="A174" s="0" t="s">
+      <x:c r="D174" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" spans="1:4">
+      <x:c r="A175" s="0" t="s">
         <x:v>179</x:v>
       </x:c>
-      <x:c r="B174" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C174" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D174" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="175" spans="1:8">
-      <x:c r="A175" s="0" t="s">
+      <x:c r="D175" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176" spans="1:4">
+      <x:c r="A176" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="B175" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C175" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D175" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="176" spans="1:8">
-      <x:c r="A176" s="0" t="s">
+      <x:c r="D176" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" spans="1:4">
+      <x:c r="A177" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
-      <x:c r="B176" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C176" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D176" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="177" spans="1:8">
-      <x:c r="A177" s="0" t="s">
+      <x:c r="D177" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178" spans="1:4">
+      <x:c r="A178" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="B177" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C177" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D177" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="178" spans="1:8">
-      <x:c r="A178" s="0" t="s">
+      <x:c r="D178" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:4">
+      <x:c r="A179" s="0" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="B178" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C178" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D178" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="179" spans="1:8">
-      <x:c r="A179" s="0" t="s">
+      <x:c r="D179" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" spans="1:4">
+      <x:c r="A180" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="B179" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C179" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D179" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="180" spans="1:8">
-      <x:c r="A180" s="0" t="s">
+      <x:c r="D180" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:4">
+      <x:c r="A181" s="0" t="s">
         <x:v>185</x:v>
       </x:c>
-      <x:c r="B180" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C180" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D180" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="181" spans="1:8">
-      <x:c r="A181" s="0" t="s">
+      <x:c r="D181" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182" spans="1:4">
+      <x:c r="A182" s="0" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="B181" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C181" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D181" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="182" spans="1:8">
-      <x:c r="A182" s="0" t="s">
+      <x:c r="D182" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183" spans="1:4">
+      <x:c r="A183" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
-      <x:c r="B182" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C182" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D182" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="183" spans="1:8">
-      <x:c r="A183" s="0" t="s">
+      <x:c r="D183" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184" spans="1:4">
+      <x:c r="A184" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="B183" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C183" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D183" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="184" spans="1:8">
-      <x:c r="A184" s="0" t="s">
+      <x:c r="D184" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185" spans="1:4">
+      <x:c r="A185" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="B184" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C184" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D184" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="185" spans="1:8">
-      <x:c r="A185" s="0" t="s">
+      <x:c r="D185" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="1:4">
+      <x:c r="A186" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="B185" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C185" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D185" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186" spans="1:8">
-      <x:c r="A186" s="0" t="s">
+      <x:c r="D186" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187" spans="1:4">
+      <x:c r="A187" s="0" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="B186" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C186" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D186" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="187" spans="1:8">
-      <x:c r="A187" s="0" t="s">
+      <x:c r="D187" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188" spans="1:4">
+      <x:c r="A188" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="B187" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C187" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D187" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="188" spans="1:8">
-      <x:c r="A188" s="0" t="s">
+      <x:c r="D188" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189" spans="1:4">
+      <x:c r="A189" s="0" t="s">
         <x:v>193</x:v>
       </x:c>
-      <x:c r="B188" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C188" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D188" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="189" spans="1:8">
-      <x:c r="A189" s="0" t="s">
+      <x:c r="D189" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190" spans="1:4">
+      <x:c r="A190" s="0" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="B189" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C189" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D189" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="190" spans="1:8">
-      <x:c r="A190" s="0" t="s">
+      <x:c r="D190" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191" spans="1:4">
+      <x:c r="A191" s="0" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="B190" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C190" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D190" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="191" spans="1:8">
-      <x:c r="A191" s="0" t="s">
+      <x:c r="D191" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192" spans="1:4">
+      <x:c r="A192" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="B191" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C191" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D191" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="192" spans="1:8">
-      <x:c r="A192" s="0" t="s">
+      <x:c r="D192" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193" spans="1:4">
+      <x:c r="A193" s="0" t="s">
         <x:v>197</x:v>
       </x:c>
-      <x:c r="B192" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C192" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D192" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="193" spans="1:8">
-      <x:c r="A193" s="0" t="s">
+      <x:c r="D193" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194" spans="1:4">
+      <x:c r="A194" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="B193" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C193" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D193" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="194" spans="1:8">
-      <x:c r="A194" s="0" t="s">
+      <x:c r="D194" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195" spans="1:4">
+      <x:c r="A195" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="B194" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C194" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D194" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="195" spans="1:8">
-      <x:c r="A195" s="0" t="s">
+      <x:c r="D195" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196" spans="1:4">
+      <x:c r="A196" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="B195" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C195" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D195" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="196" spans="1:8">
-      <x:c r="A196" s="0" t="s">
+      <x:c r="D196" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197" spans="1:4">
+      <x:c r="A197" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
-      <x:c r="B196" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C196" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D196" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="197" spans="1:8">
-      <x:c r="A197" s="0" t="s">
+      <x:c r="D197" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198" spans="1:4">
+      <x:c r="A198" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="B197" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C197" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D197" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="198" spans="1:8">
-      <x:c r="A198" s="0" t="s">
+      <x:c r="D198" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199" spans="1:4">
+      <x:c r="A199" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="B198" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C198" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D198" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="199" spans="1:8">
-      <x:c r="A199" s="0" t="s">
+      <x:c r="D199" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200" spans="1:4">
+      <x:c r="A200" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
-      <x:c r="B199" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C199" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D199" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="200" spans="1:8">
-      <x:c r="A200" s="0" t="s">
+      <x:c r="D200" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201" spans="1:4">
+      <x:c r="A201" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="B200" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C200" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D200" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="201" spans="1:8">
-      <x:c r="A201" s="0" t="s">
+      <x:c r="D201" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="202" spans="1:4">
+      <x:c r="A202" s="0" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="B201" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C201" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D201" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="202" spans="1:8">
-      <x:c r="A202" s="0" t="s">
+      <x:c r="D202" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203" spans="1:4">
+      <x:c r="A203" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
-      <x:c r="B202" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C202" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D202" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="203" spans="1:8">
-      <x:c r="A203" s="0" t="s">
+      <x:c r="D203" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204" spans="1:4">
+      <x:c r="A204" s="0" t="s">
         <x:v>208</x:v>
       </x:c>
-      <x:c r="B203" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C203" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D203" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="204" spans="1:8">
-      <x:c r="A204" s="0" t="s">
+      <x:c r="D204" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="205" spans="1:4">
+      <x:c r="A205" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
-      <x:c r="B204" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C204" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D204" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="205" spans="1:8">
-      <x:c r="A205" s="0" t="s">
+      <x:c r="D205" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206" spans="1:4">
+      <x:c r="A206" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="B205" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C205" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D205" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="206" spans="1:8">
-      <x:c r="A206" s="0" t="s">
+      <x:c r="D206" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207" spans="1:4">
+      <x:c r="A207" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
-      <x:c r="B206" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C206" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D206" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="207" spans="1:8">
-      <x:c r="A207" s="0" t="s">
+      <x:c r="D207" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="208" spans="1:4">
+      <x:c r="A208" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
-      <x:c r="B207" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C207" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D207" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="208" spans="1:8">
-      <x:c r="A208" s="0" t="s">
+      <x:c r="D208" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="209" spans="1:4">
+      <x:c r="A209" s="0" t="s">
         <x:v>213</x:v>
       </x:c>
-      <x:c r="B208" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C208" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D208" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="209" spans="1:8">
-      <x:c r="A209" s="0" t="s">
+      <x:c r="D209" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="210" spans="1:4">
+      <x:c r="A210" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
-      <x:c r="B209" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C209" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D209" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="210" spans="1:8">
-      <x:c r="A210" s="0" t="s">
+      <x:c r="D210" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="211" spans="1:4">
+      <x:c r="A211" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="B210" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C210" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D210" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="211" spans="1:8">
-      <x:c r="A211" s="0" t="s">
+      <x:c r="D211" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212" spans="1:4">
+      <x:c r="A212" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
-      <x:c r="B211" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C211" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D211" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="212" spans="1:8">
-      <x:c r="A212" s="0" t="s">
+      <x:c r="D212" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="213" spans="1:4">
+      <x:c r="A213" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="B212" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C212" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D212" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="213" spans="1:8">
-      <x:c r="A213" s="0" t="s">
+      <x:c r="D213" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="214" spans="1:4">
+      <x:c r="A214" s="0" t="s">
         <x:v>218</x:v>
       </x:c>
-      <x:c r="B213" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C213" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D213" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="214" spans="1:8">
-      <x:c r="A214" s="0" t="s">
+      <x:c r="D214" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="215" spans="1:4">
+      <x:c r="A215" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
-      <x:c r="B214" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C214" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D214" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="215" spans="1:8">
-      <x:c r="A215" s="0" t="s">
+      <x:c r="D215" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="216" spans="1:4">
+      <x:c r="A216" s="0" t="s">
         <x:v>220</x:v>
       </x:c>
-      <x:c r="B215" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C215" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D215" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="216" spans="1:8">
-      <x:c r="A216" s="0" t="s">
+      <x:c r="D216" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="217" spans="1:4">
+      <x:c r="A217" s="0" t="s">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="B216" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C216" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D216" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="217" spans="1:8">
-      <x:c r="A217" s="0" t="s">
+      <x:c r="D217" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="218" spans="1:4">
+      <x:c r="A218" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
-      <x:c r="B217" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C217" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D217" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="218" spans="1:8">
-      <x:c r="A218" s="0" t="s">
+      <x:c r="D218" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="219" spans="1:4">
+      <x:c r="A219" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
-      <x:c r="B218" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C218" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D218" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="219" spans="1:8">
-      <x:c r="A219" s="0" t="s">
+      <x:c r="D219" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220" spans="1:4">
+      <x:c r="A220" s="0" t="s">
         <x:v>224</x:v>
       </x:c>
-      <x:c r="B219" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C219" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D219" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="220" spans="1:8">
-      <x:c r="A220" s="0" t="s">
+      <x:c r="D220" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="221" spans="1:4">
+      <x:c r="A221" s="0" t="s">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="B220" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C220" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D220" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="221" spans="1:8">
-      <x:c r="A221" s="0" t="s">
+      <x:c r="D221" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="222" spans="1:4">
+      <x:c r="A222" s="0" t="s">
         <x:v>226</x:v>
       </x:c>
-      <x:c r="B221" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C221" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D221" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="222" spans="1:8">
-      <x:c r="A222" s="0" t="s">
+      <x:c r="D222" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="223" spans="1:4">
+      <x:c r="A223" s="0" t="s">
         <x:v>227</x:v>
       </x:c>
-      <x:c r="B222" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C222" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D222" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="223" spans="1:8">
-      <x:c r="A223" s="0" t="s">
+      <x:c r="D223" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="224" spans="1:4">
+      <x:c r="A224" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
-      <x:c r="B223" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C223" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D223" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="224" spans="1:8">
-      <x:c r="A224" s="0" t="s">
+      <x:c r="D224" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="225" spans="1:4">
+      <x:c r="A225" s="0" t="s">
         <x:v>229</x:v>
       </x:c>
-      <x:c r="B224" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C224" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D224" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="225" spans="1:8">
-      <x:c r="A225" s="0" t="s">
+      <x:c r="D225" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="226" spans="1:4">
+      <x:c r="A226" s="0" t="s">
         <x:v>230</x:v>
       </x:c>
-      <x:c r="B225" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C225" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D225" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="226" spans="1:8">
-      <x:c r="A226" s="0" t="s">
+      <x:c r="D226" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="227" spans="1:4">
+      <x:c r="A227" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="B226" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C226" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D226" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="227" spans="1:8">
-      <x:c r="A227" s="0" t="s">
+      <x:c r="D227" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="228" spans="1:4">
+      <x:c r="A228" s="0" t="s">
         <x:v>232</x:v>
       </x:c>
-      <x:c r="B227" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C227" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D227" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="228" spans="1:8">
-      <x:c r="A228" s="0" t="s">
+      <x:c r="D228" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="229" spans="1:4">
+      <x:c r="A229" s="0" t="s">
         <x:v>233</x:v>
       </x:c>
-      <x:c r="B228" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C228" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D228" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="229" spans="1:8">
-      <x:c r="A229" s="0" t="s">
+      <x:c r="D229" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="230" spans="1:4">
+      <x:c r="A230" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
-      <x:c r="B229" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C229" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D229" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="230" spans="1:8">
-      <x:c r="A230" s="0" t="s">
+      <x:c r="D230" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="231" spans="1:4">
+      <x:c r="A231" s="0" t="s">
         <x:v>235</x:v>
       </x:c>
-      <x:c r="B230" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C230" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D230" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="231" spans="1:8">
-      <x:c r="A231" s="0" t="s">
+      <x:c r="D231" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="232" spans="1:4">
+      <x:c r="A232" s="0" t="s">
         <x:v>236</x:v>
       </x:c>
-      <x:c r="B231" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C231" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D231" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="232" spans="1:8">
-      <x:c r="A232" s="0" t="s">
+      <x:c r="D232" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="233" spans="1:4">
+      <x:c r="A233" s="0" t="s">
         <x:v>237</x:v>
       </x:c>
-      <x:c r="B232" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C232" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D232" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="233" spans="1:8">
-      <x:c r="A233" s="0" t="s">
+      <x:c r="D233" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="234" spans="1:4">
+      <x:c r="A234" s="0" t="s">
         <x:v>238</x:v>
       </x:c>
-      <x:c r="B233" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C233" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D233" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="234" spans="1:8">
-      <x:c r="A234" s="0" t="s">
+      <x:c r="D234" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="235" spans="1:4">
+      <x:c r="A235" s="0" t="s">
         <x:v>239</x:v>
       </x:c>
-      <x:c r="B234" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C234" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D234" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="235" spans="1:8">
-      <x:c r="A235" s="0" t="s">
+      <x:c r="D235" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="236" spans="1:4">
+      <x:c r="A236" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
-      <x:c r="B235" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C235" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D235" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="236" spans="1:8">
-      <x:c r="A236" s="0" t="s">
+      <x:c r="D236" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="237" spans="1:4">
+      <x:c r="A237" s="0" t="s">
         <x:v>241</x:v>
       </x:c>
-      <x:c r="B236" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C236" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D236" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="237" spans="1:8">
-      <x:c r="A237" s="0" t="s">
+      <x:c r="D237" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="238" spans="1:4">
+      <x:c r="A238" s="0" t="s">
         <x:v>242</x:v>
       </x:c>
-      <x:c r="B237" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C237" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D237" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="238" spans="1:8">
-      <x:c r="A238" s="0" t="s">
+      <x:c r="D238" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="239" spans="1:4">
+      <x:c r="A239" s="0" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="B238" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C238" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D238" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="239" spans="1:8">
-      <x:c r="A239" s="0" t="s">
+      <x:c r="D239" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="240" spans="1:4">
+      <x:c r="A240" s="0" t="s">
         <x:v>244</x:v>
       </x:c>
-      <x:c r="B239" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C239" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D239" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="240" spans="1:8">
-      <x:c r="A240" s="0" t="s">
+      <x:c r="D240" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="241" spans="1:4">
+      <x:c r="A241" s="0" t="s">
         <x:v>245</x:v>
       </x:c>
-      <x:c r="B240" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C240" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D240" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="241" spans="1:8">
-      <x:c r="A241" s="0" t="s">
+      <x:c r="D241" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="242" spans="1:4">
+      <x:c r="A242" s="0" t="s">
         <x:v>246</x:v>
       </x:c>
-      <x:c r="B241" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C241" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D241" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="242" spans="1:8">
-      <x:c r="A242" s="0" t="s">
+      <x:c r="D242" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="243" spans="1:4">
+      <x:c r="A243" s="0" t="s">
         <x:v>247</x:v>
       </x:c>
-      <x:c r="B242" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C242" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D242" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="243" spans="1:8">
-      <x:c r="A243" s="0" t="s">
+      <x:c r="D243" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="244" spans="1:4">
+      <x:c r="A244" s="0" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="B243" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C243" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D243" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="244" spans="1:8">
-      <x:c r="A244" s="0" t="s">
+      <x:c r="D244" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="245" spans="1:4">
+      <x:c r="A245" s="0" t="s">
         <x:v>249</x:v>
       </x:c>
-      <x:c r="B244" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C244" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D244" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="245" spans="1:8">
-      <x:c r="A245" s="0" t="s">
+      <x:c r="D245" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="246" spans="1:4">
+      <x:c r="A246" s="0" t="s">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="B245" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C245" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D245" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="246" spans="1:8">
-      <x:c r="A246" s="0" t="s">
+      <x:c r="D246" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="247" spans="1:4">
+      <x:c r="A247" s="0" t="s">
         <x:v>251</x:v>
       </x:c>
-      <x:c r="B246" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C246" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D246" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="247" spans="1:8">
-      <x:c r="A247" s="0" t="s">
+      <x:c r="D247" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="248" spans="1:4">
+      <x:c r="A248" s="0" t="s">
         <x:v>252</x:v>
       </x:c>
-      <x:c r="B247" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C247" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D247" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="248" spans="1:8">
-      <x:c r="A248" s="0" t="s">
+      <x:c r="D248" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="249" spans="1:4">
+      <x:c r="A249" s="0" t="s">
         <x:v>253</x:v>
       </x:c>
-      <x:c r="B248" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C248" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D248" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="249" spans="1:8">
-      <x:c r="A249" s="0" t="s">
+      <x:c r="D249" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="250" spans="1:4">
+      <x:c r="A250" s="0" t="s">
         <x:v>254</x:v>
       </x:c>
-      <x:c r="B249" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C249" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D249" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="250" spans="1:8">
-      <x:c r="A250" s="0" t="s">
+      <x:c r="D250" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="251" spans="1:4">
+      <x:c r="A251" s="0" t="s">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="B250" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C250" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D250" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="251" spans="1:8">
-      <x:c r="A251" s="0" t="s">
+      <x:c r="D251" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="252" spans="1:4">
+      <x:c r="A252" s="0" t="s">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="B251" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C251" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D251" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="252" spans="1:8">
-      <x:c r="A252" s="0" t="s">
+      <x:c r="D252" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="253" spans="1:4">
+      <x:c r="A253" s="0" t="s">
         <x:v>257</x:v>
       </x:c>
-      <x:c r="B252" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C252" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D252" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="253" spans="1:8">
-      <x:c r="A253" s="0" t="s">
+      <x:c r="D253" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="254" spans="1:4">
+      <x:c r="A254" s="0" t="s">
         <x:v>258</x:v>
       </x:c>
-      <x:c r="B253" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C253" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D253" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="254" spans="1:8">
-      <x:c r="A254" s="0" t="s">
+      <x:c r="D254" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="255" spans="1:4">
+      <x:c r="A255" s="0" t="s">
         <x:v>259</x:v>
       </x:c>
-      <x:c r="B254" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C254" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D254" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="255" spans="1:8">
-      <x:c r="A255" s="0" t="s">
+      <x:c r="D255" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="256" spans="1:4">
+      <x:c r="A256" s="0" t="s">
         <x:v>260</x:v>
       </x:c>
-      <x:c r="B255" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C255" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D255" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="256" spans="1:8">
-      <x:c r="A256" s="0" t="s">
+      <x:c r="D256" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="257" spans="1:4">
+      <x:c r="A257" s="0" t="s">
         <x:v>261</x:v>
       </x:c>
-      <x:c r="B256" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C256" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D256" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="257" spans="1:8">
-      <x:c r="A257" s="0" t="s">
+      <x:c r="D257" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="258" spans="1:4">
+      <x:c r="A258" s="0" t="s">
         <x:v>262</x:v>
       </x:c>
-      <x:c r="B257" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C257" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D257" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="258" spans="1:8">
-      <x:c r="A258" s="0" t="s">
+      <x:c r="D258" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="259" spans="1:4">
+      <x:c r="A259" s="0" t="s">
         <x:v>263</x:v>
       </x:c>
-      <x:c r="B258" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C258" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D258" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="259" spans="1:8">
-      <x:c r="A259" s="0" t="s">
+      <x:c r="D259" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="260" spans="1:4">
+      <x:c r="A260" s="0" t="s">
         <x:v>264</x:v>
       </x:c>
-      <x:c r="B259" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C259" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D259" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="260" spans="1:8">
-      <x:c r="A260" s="0" t="s">
+      <x:c r="D260" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="261" spans="1:4">
+      <x:c r="A261" s="0" t="s">
         <x:v>265</x:v>
       </x:c>
-      <x:c r="B260" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C260" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D260" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="261" spans="1:8">
-      <x:c r="A261" s="0" t="s">
+      <x:c r="D261" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="262" spans="1:4">
+      <x:c r="A262" s="0" t="s">
         <x:v>266</x:v>
       </x:c>
-      <x:c r="B261" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C261" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D261" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="262" spans="1:8">
-      <x:c r="A262" s="0" t="s">
+      <x:c r="D262" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="263" spans="1:4">
+      <x:c r="A263" s="0" t="s">
         <x:v>267</x:v>
       </x:c>
-      <x:c r="B262" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C262" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D262" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="263" spans="1:8">
-      <x:c r="A263" s="0" t="s">
+      <x:c r="D263" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="264" spans="1:4">
+      <x:c r="A264" s="0" t="s">
         <x:v>268</x:v>
       </x:c>
-      <x:c r="B263" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C263" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D263" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="264" spans="1:8">
-      <x:c r="A264" s="0" t="s">
+      <x:c r="D264" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="265" spans="1:4">
+      <x:c r="A265" s="0" t="s">
         <x:v>269</x:v>
       </x:c>
-      <x:c r="B264" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C264" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D264" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="265" spans="1:8">
-      <x:c r="A265" s="0" t="s">
+      <x:c r="D265" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="266" spans="1:4">
+      <x:c r="A266" s="0" t="s">
         <x:v>270</x:v>
       </x:c>
-      <x:c r="B265" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C265" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D265" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="266" spans="1:8">
-      <x:c r="A266" s="0" t="s">
+      <x:c r="D266" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="267" spans="1:4">
+      <x:c r="A267" s="0" t="s">
         <x:v>271</x:v>
       </x:c>
-      <x:c r="B266" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C266" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D266" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="267" spans="1:8">
-      <x:c r="A267" s="0" t="s">
+      <x:c r="D267" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="268" spans="1:4">
+      <x:c r="A268" s="0" t="s">
         <x:v>272</x:v>
       </x:c>
-      <x:c r="B267" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C267" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D267" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="268" spans="1:8">
-      <x:c r="A268" s="0" t="s">
+      <x:c r="D268" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="269" spans="1:4">
+      <x:c r="A269" s="0" t="s">
         <x:v>273</x:v>
       </x:c>
-      <x:c r="B268" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C268" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D268" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="269" spans="1:8">
-      <x:c r="A269" s="0" t="s">
+      <x:c r="D269" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="270" spans="1:4">
+      <x:c r="A270" s="0" t="s">
         <x:v>274</x:v>
       </x:c>
-      <x:c r="B269" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C269" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D269" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="270" spans="1:8">
-      <x:c r="A270" s="0" t="s">
+      <x:c r="D270" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="271" spans="1:4">
+      <x:c r="A271" s="0" t="s">
         <x:v>275</x:v>
       </x:c>
-      <x:c r="B270" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C270" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D270" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="271" spans="1:8">
-      <x:c r="A271" s="0" t="s">
+      <x:c r="D271" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="272" spans="1:4">
+      <x:c r="A272" s="0" t="s">
         <x:v>276</x:v>
       </x:c>
-      <x:c r="B271" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C271" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D271" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="272" spans="1:8">
-      <x:c r="A272" s="0" t="s">
+      <x:c r="D272" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="273" spans="1:4">
+      <x:c r="A273" s="0" t="s">
         <x:v>277</x:v>
       </x:c>
-      <x:c r="B272" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C272" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D272" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="273" spans="1:8">
-      <x:c r="A273" s="0" t="s">
+      <x:c r="D273" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="274" spans="1:4">
+      <x:c r="A274" s="0" t="s">
         <x:v>278</x:v>
       </x:c>
-      <x:c r="D273" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="274" spans="1:8">
-      <x:c r="A274" s="0" t="s">
+      <x:c r="D274" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="275" spans="1:4">
+      <x:c r="A275" s="0" t="s">
         <x:v>279</x:v>
       </x:c>
-      <x:c r="D274" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="275" spans="1:8">
-      <x:c r="A275" s="0" t="s">
+      <x:c r="D275" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="276" spans="1:4">
+      <x:c r="A276" s="0" t="s">
         <x:v>280</x:v>
       </x:c>
-      <x:c r="D275" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="276" spans="1:8">
-      <x:c r="A276" s="0" t="s">
+      <x:c r="D276" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="277" spans="1:4">
+      <x:c r="A277" s="0" t="s">
         <x:v>281</x:v>
       </x:c>
-      <x:c r="D276" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="277" spans="1:8">
-      <x:c r="A277" s="0" t="s">
+      <x:c r="D277" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="278" spans="1:4">
+      <x:c r="A278" s="0" t="s">
         <x:v>282</x:v>
       </x:c>
-      <x:c r="D277" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="278" spans="1:8">
-      <x:c r="A278" s="0" t="s">
+      <x:c r="D278" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="279" spans="1:4">
+      <x:c r="A279" s="0" t="s">
         <x:v>283</x:v>
       </x:c>
-      <x:c r="D278" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="279" spans="1:8">
-      <x:c r="A279" s="0" t="s">
+      <x:c r="D279" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="280" spans="1:4">
+      <x:c r="A280" s="0" t="s">
         <x:v>284</x:v>
       </x:c>
-      <x:c r="D279" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="280" spans="1:8">
-      <x:c r="A280" s="0" t="s">
+      <x:c r="D280" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="281" spans="1:4">
+      <x:c r="A281" s="0" t="s">
         <x:v>285</x:v>
       </x:c>
-      <x:c r="D280" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="281" spans="1:8">
-      <x:c r="A281" s="0" t="s">
+      <x:c r="D281" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="282" spans="1:4">
+      <x:c r="A282" s="0" t="s">
         <x:v>286</x:v>
       </x:c>
-      <x:c r="D281" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="282" spans="1:8">
-      <x:c r="A282" s="0" t="s">
+      <x:c r="D282" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="283" spans="1:4">
+      <x:c r="A283" s="0" t="s">
         <x:v>287</x:v>
       </x:c>
-      <x:c r="D282" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="283" spans="1:8">
-      <x:c r="A283" s="0" t="s">
+      <x:c r="D283" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="284" spans="1:4">
+      <x:c r="A284" s="0" t="s">
         <x:v>288</x:v>
       </x:c>
-      <x:c r="D283" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="284" spans="1:8">
-      <x:c r="A284" s="0" t="s">
+      <x:c r="D284" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="285" spans="1:4">
+      <x:c r="A285" s="0" t="s">
         <x:v>289</x:v>
       </x:c>
-      <x:c r="D284" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="285" spans="1:8">
-      <x:c r="A285" s="0" t="s">
+      <x:c r="D285" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="286" spans="1:4">
+      <x:c r="A286" s="0" t="s">
         <x:v>290</x:v>
       </x:c>
-      <x:c r="D285" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="286" spans="1:8">
-      <x:c r="A286" s="0" t="s">
+      <x:c r="D286" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="287" spans="1:4">
+      <x:c r="A287" s="0" t="s">
         <x:v>291</x:v>
       </x:c>
-      <x:c r="D286" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="287" spans="1:8">
-      <x:c r="A287" s="0" t="s">
+      <x:c r="D287" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="288" spans="1:4">
+      <x:c r="A288" s="0" t="s">
         <x:v>292</x:v>
       </x:c>
-      <x:c r="D287" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="288" spans="1:8">
-      <x:c r="A288" s="0" t="s">
+      <x:c r="D288" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="289" spans="1:4">
+      <x:c r="A289" s="0" t="s">
         <x:v>293</x:v>
       </x:c>
-      <x:c r="D288" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="289" spans="1:8">
-      <x:c r="A289" s="0" t="s">
+      <x:c r="D289" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="290" spans="1:4">
+      <x:c r="A290" s="0" t="s">
         <x:v>294</x:v>
       </x:c>
-      <x:c r="D289" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="290" spans="1:8">
-      <x:c r="A290" s="0" t="s">
+      <x:c r="D290" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="291" spans="1:4">
+      <x:c r="A291" s="0" t="s">
         <x:v>295</x:v>
       </x:c>
-      <x:c r="D290" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="291" spans="1:8">
-      <x:c r="A291" s="0" t="s">
+      <x:c r="D291" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="292" spans="1:4">
+      <x:c r="A292" s="0" t="s">
         <x:v>296</x:v>
       </x:c>
-      <x:c r="D291" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="292" spans="1:8">
-      <x:c r="A292" s="0" t="s">
+      <x:c r="D292" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="293" spans="1:4">
+      <x:c r="A293" s="0" t="s">
         <x:v>297</x:v>
       </x:c>
-      <x:c r="D292" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="293" spans="1:8">
-      <x:c r="A293" s="0" t="s">
+      <x:c r="D293" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="294" spans="1:4">
+      <x:c r="A294" s="0" t="s">
         <x:v>298</x:v>
       </x:c>
-      <x:c r="D293" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="294" spans="1:8">
-      <x:c r="A294" s="0" t="s">
+      <x:c r="D294" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="295" spans="1:4">
+      <x:c r="A295" s="0" t="s">
         <x:v>299</x:v>
       </x:c>
-      <x:c r="D294" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="295" spans="1:8">
-      <x:c r="A295" s="0" t="s">
+      <x:c r="D295" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="296" spans="1:4">
+      <x:c r="A296" s="0" t="s">
         <x:v>300</x:v>
       </x:c>
-      <x:c r="D295" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="296" spans="1:8">
-      <x:c r="A296" s="0" t="s">
+      <x:c r="D296" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="297" spans="1:4">
+      <x:c r="A297" s="0" t="s">
         <x:v>301</x:v>
       </x:c>
-      <x:c r="D296" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="297" spans="1:8">
-      <x:c r="A297" s="0" t="s">
+      <x:c r="D297" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="298" spans="1:4">
+      <x:c r="A298" s="0" t="s">
         <x:v>302</x:v>
       </x:c>
-      <x:c r="D297" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="298" spans="1:8">
-      <x:c r="A298" s="0" t="s">
+      <x:c r="D298" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="299" spans="1:4">
+      <x:c r="A299" s="0" t="s">
         <x:v>303</x:v>
       </x:c>
-      <x:c r="D298" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="299" spans="1:8">
-      <x:c r="A299" s="0" t="s">
+      <x:c r="D299" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="300" spans="1:4">
+      <x:c r="A300" s="0" t="s">
         <x:v>304</x:v>
       </x:c>
-      <x:c r="D299" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="300" spans="1:8">
-      <x:c r="A300" s="0" t="s">
+      <x:c r="D300" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="301" spans="1:4">
+      <x:c r="A301" s="0" t="s">
         <x:v>305</x:v>
       </x:c>
-      <x:c r="D300" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="301" spans="1:8">
-      <x:c r="A301" s="0" t="s">
+      <x:c r="D301" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="302" spans="1:4">
+      <x:c r="A302" s="0" t="s">
         <x:v>306</x:v>
       </x:c>
-      <x:c r="D301" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="302" spans="1:8">
-      <x:c r="A302" s="0" t="s">
+      <x:c r="D302" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="303" spans="1:4">
+      <x:c r="A303" s="0" t="s">
         <x:v>307</x:v>
       </x:c>
-      <x:c r="D302" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="303" spans="1:8">
-      <x:c r="A303" s="0" t="s">
+      <x:c r="D303" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="304" spans="1:4">
+      <x:c r="A304" s="0" t="s">
         <x:v>308</x:v>
       </x:c>
-      <x:c r="D303" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="304" spans="1:8">
-      <x:c r="A304" s="0" t="s">
+      <x:c r="D304" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="305" spans="1:4">
+      <x:c r="A305" s="0" t="s">
         <x:v>309</x:v>
       </x:c>
-      <x:c r="D304" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="305" spans="1:8">
-      <x:c r="A305" s="0" t="s">
+      <x:c r="D305" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="306" spans="1:4">
+      <x:c r="A306" s="0" t="s">
         <x:v>310</x:v>
       </x:c>
-      <x:c r="D305" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="306" spans="1:8">
-      <x:c r="A306" s="0" t="s">
+      <x:c r="D306" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="307" spans="1:4">
+      <x:c r="A307" s="0" t="s">
         <x:v>311</x:v>
       </x:c>
-      <x:c r="D306" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="307" spans="1:8">
-      <x:c r="A307" s="0" t="s">
+      <x:c r="D307" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="308" spans="1:4">
+      <x:c r="A308" s="0" t="s">
         <x:v>312</x:v>
       </x:c>
-      <x:c r="D307" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="308" spans="1:8">
-      <x:c r="A308" s="0" t="s">
+      <x:c r="D308" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="309" spans="1:4">
+      <x:c r="A309" s="0" t="s">
         <x:v>313</x:v>
       </x:c>
-      <x:c r="D308" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="309" spans="1:8">
-      <x:c r="A309" s="0" t="s">
+      <x:c r="D309" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="310" spans="1:4">
+      <x:c r="A310" s="0" t="s">
         <x:v>314</x:v>
       </x:c>
-      <x:c r="D309" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="310" spans="1:8">
-      <x:c r="A310" s="0" t="s">
+      <x:c r="D310" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="311" spans="1:4">
+      <x:c r="A311" s="0" t="s">
         <x:v>315</x:v>
       </x:c>
-      <x:c r="D310" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="311" spans="1:8">
-      <x:c r="A311" s="0" t="s">
+      <x:c r="D311" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="312" spans="1:4">
+      <x:c r="A312" s="0" t="s">
         <x:v>316</x:v>
       </x:c>
-      <x:c r="D311" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="312" spans="1:8">
-      <x:c r="A312" s="0" t="s">
+      <x:c r="D312" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="313" spans="1:4">
+      <x:c r="A313" s="0" t="s">
         <x:v>317</x:v>
       </x:c>
-      <x:c r="D312" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="313" spans="1:8">
-      <x:c r="A313" s="0" t="s">
+      <x:c r="D313" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="314" spans="1:4">
+      <x:c r="A314" s="0" t="s">
         <x:v>318</x:v>
       </x:c>
-      <x:c r="D313" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="314" spans="1:8">
-      <x:c r="A314" s="0" t="s">
+      <x:c r="D314" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="315" spans="1:4">
+      <x:c r="A315" s="0" t="s">
         <x:v>319</x:v>
       </x:c>
-      <x:c r="D314" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="315" spans="1:8">
-      <x:c r="A315" s="0" t="s">
+      <x:c r="D315" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="316" spans="1:4">
+      <x:c r="A316" s="0" t="s">
         <x:v>320</x:v>
       </x:c>
-      <x:c r="D315" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="316" spans="1:8">
-      <x:c r="A316" s="0" t="s">
+      <x:c r="D316" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="317" spans="1:4">
+      <x:c r="A317" s="0" t="s">
         <x:v>321</x:v>
       </x:c>
-      <x:c r="D316" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="317" spans="1:8">
-      <x:c r="A317" s="0" t="s">
+      <x:c r="D317" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="318" spans="1:4">
+      <x:c r="A318" s="0" t="s">
         <x:v>322</x:v>
       </x:c>
-      <x:c r="D317" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="318" spans="1:8">
-      <x:c r="A318" s="0" t="s">
+      <x:c r="D318" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="319" spans="1:4">
+      <x:c r="A319" s="0" t="s">
         <x:v>323</x:v>
       </x:c>
-      <x:c r="D318" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="319" spans="1:8">
-      <x:c r="A319" s="0" t="s">
+      <x:c r="D319" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="320" spans="1:4">
+      <x:c r="A320" s="0" t="s">
         <x:v>324</x:v>
       </x:c>
-      <x:c r="D319" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="320" spans="1:8">
-      <x:c r="A320" s="0" t="s">
+      <x:c r="D320" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="321" spans="1:4">
+      <x:c r="A321" s="0" t="s">
         <x:v>325</x:v>
       </x:c>
-      <x:c r="D320" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="321" spans="1:8">
-      <x:c r="A321" s="0" t="s">
+      <x:c r="D321" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="322" spans="1:4">
+      <x:c r="A322" s="0" t="s">
         <x:v>326</x:v>
       </x:c>
-      <x:c r="D321" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="322" spans="1:8">
-      <x:c r="A322" s="0" t="s">
+      <x:c r="D322" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="323" spans="1:4">
+      <x:c r="A323" s="0" t="s">
         <x:v>327</x:v>
       </x:c>
-      <x:c r="D322" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="323" spans="1:8">
-      <x:c r="A323" s="0" t="s">
+      <x:c r="D323" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="324" spans="1:4">
+      <x:c r="A324" s="0" t="s">
         <x:v>328</x:v>
       </x:c>
-      <x:c r="D323" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="324" spans="1:8">
-      <x:c r="A324" s="0" t="s">
+      <x:c r="D324" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="325" spans="1:4">
+      <x:c r="A325" s="0" t="s">
         <x:v>329</x:v>
       </x:c>
-      <x:c r="D324" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="325" spans="1:8">
-      <x:c r="A325" s="0" t="s">
+      <x:c r="D325" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="326" spans="1:4">
+      <x:c r="A326" s="0" t="s">
         <x:v>330</x:v>
       </x:c>
-      <x:c r="D325" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="326" spans="1:8">
-      <x:c r="A326" s="0" t="s">
+      <x:c r="D326" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="327" spans="1:4">
+      <x:c r="A327" s="0" t="s">
         <x:v>331</x:v>
       </x:c>
-      <x:c r="D326" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="327" spans="1:8">
-      <x:c r="A327" s="0" t="s">
+      <x:c r="D327" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="328" spans="1:4">
+      <x:c r="A328" s="0" t="s">
         <x:v>332</x:v>
       </x:c>
-      <x:c r="D327" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="328" spans="1:8">
-      <x:c r="A328" s="0" t="s">
+      <x:c r="D328" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="329" spans="1:4">
+      <x:c r="A329" s="0" t="s">
         <x:v>333</x:v>
       </x:c>
-      <x:c r="D328" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="329" spans="1:8">
-      <x:c r="A329" s="0" t="s">
+      <x:c r="D329" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="330" spans="1:4">
+      <x:c r="A330" s="0" t="s">
         <x:v>334</x:v>
       </x:c>
-      <x:c r="D329" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="330" spans="1:8">
-      <x:c r="A330" s="0" t="s">
+      <x:c r="D330" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="331" spans="1:4">
+      <x:c r="A331" s="0" t="s">
         <x:v>335</x:v>
       </x:c>
-      <x:c r="D330" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="331" spans="1:8">
-      <x:c r="A331" s="0" t="s">
+      <x:c r="D331" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="332" spans="1:4">
+      <x:c r="A332" s="0" t="s">
         <x:v>336</x:v>
       </x:c>
-      <x:c r="D331" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="332" spans="1:8">
-      <x:c r="A332" s="0" t="s">
+      <x:c r="D332" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="333" spans="1:4">
+      <x:c r="A333" s="0" t="s">
         <x:v>337</x:v>
       </x:c>
-      <x:c r="D332" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="333" spans="1:8">
-      <x:c r="A333" s="0" t="s">
+      <x:c r="D333" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="334" spans="1:4">
+      <x:c r="A334" s="0" t="s">
         <x:v>338</x:v>
       </x:c>
-      <x:c r="D333" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="334" spans="1:8">
-      <x:c r="A334" s="0" t="s">
+      <x:c r="D334" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="335" spans="1:4">
+      <x:c r="A335" s="0" t="s">
         <x:v>339</x:v>
       </x:c>
-      <x:c r="D334" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="335" spans="1:8">
-      <x:c r="A335" s="0" t="s">
+      <x:c r="D335" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="336" spans="1:4">
+      <x:c r="A336" s="0" t="s">
         <x:v>340</x:v>
       </x:c>
-      <x:c r="D335" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="336" spans="1:8">
-      <x:c r="A336" s="0" t="s">
+      <x:c r="D336" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="337" spans="1:4">
+      <x:c r="A337" s="0" t="s">
         <x:v>341</x:v>
       </x:c>
-      <x:c r="D336" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="337" spans="1:8">
-      <x:c r="A337" s="0" t="s">
+      <x:c r="D337" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="338" spans="1:4">
+      <x:c r="A338" s="0" t="s">
         <x:v>342</x:v>
       </x:c>
-      <x:c r="D337" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="338" spans="1:8">
-      <x:c r="A338" s="0" t="s">
+      <x:c r="D338" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="339" spans="1:4">
+      <x:c r="A339" s="0" t="s">
         <x:v>343</x:v>
       </x:c>
-      <x:c r="D338" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="339" spans="1:8">
-      <x:c r="A339" s="0" t="s">
+      <x:c r="D339" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="340" spans="1:4">
+      <x:c r="A340" s="0" t="s">
         <x:v>344</x:v>
       </x:c>
-      <x:c r="D339" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="340" spans="1:8">
-      <x:c r="A340" s="0" t="s">
+      <x:c r="D340" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="341" spans="1:4">
+      <x:c r="A341" s="0" t="s">
         <x:v>345</x:v>
       </x:c>
-      <x:c r="D340" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="341" spans="1:8">
-      <x:c r="A341" s="0" t="s">
+      <x:c r="D341" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="342" spans="1:4">
+      <x:c r="A342" s="0" t="s">
         <x:v>346</x:v>
       </x:c>
-      <x:c r="D341" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="342" spans="1:8">
-      <x:c r="A342" s="0" t="s">
+      <x:c r="D342" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="343" spans="1:4">
+      <x:c r="A343" s="0" t="s">
         <x:v>347</x:v>
       </x:c>
-      <x:c r="D342" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="343" spans="1:8">
-      <x:c r="A343" s="0" t="s">
+      <x:c r="D343" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="344" spans="1:4">
+      <x:c r="A344" s="0" t="s">
         <x:v>348</x:v>
       </x:c>
-      <x:c r="D343" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="344" spans="1:8">
-      <x:c r="A344" s="0" t="s">
+      <x:c r="D344" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="345" spans="1:4">
+      <x:c r="A345" s="0" t="s">
         <x:v>349</x:v>
       </x:c>
-      <x:c r="D344" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="345" spans="1:8">
-      <x:c r="A345" s="0" t="s">
+      <x:c r="D345" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="346" spans="1:4">
+      <x:c r="A346" s="0" t="s">
         <x:v>350</x:v>
       </x:c>
-      <x:c r="D345" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="346" spans="1:8">
-      <x:c r="A346" s="0" t="s">
+      <x:c r="D346" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="347" spans="1:4">
+      <x:c r="A347" s="0" t="s">
         <x:v>351</x:v>
       </x:c>
-      <x:c r="D346" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="347" spans="1:8">
-      <x:c r="A347" s="0" t="s">
+      <x:c r="D347" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="348" spans="1:4">
+      <x:c r="A348" s="0" t="s">
         <x:v>352</x:v>
       </x:c>
-      <x:c r="D347" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="348" spans="1:8">
-      <x:c r="A348" s="0" t="s">
+      <x:c r="D348" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="349" spans="1:4">
+      <x:c r="A349" s="0" t="s">
         <x:v>353</x:v>
       </x:c>
-      <x:c r="D348" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="349" spans="1:8">
-      <x:c r="A349" s="0" t="s">
+      <x:c r="D349" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="350" spans="1:4">
+      <x:c r="A350" s="0" t="s">
         <x:v>354</x:v>
       </x:c>
-      <x:c r="D349" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="350" spans="1:8">
-      <x:c r="A350" s="0" t="s">
+      <x:c r="D350" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="351" spans="1:4">
+      <x:c r="A351" s="0" t="s">
         <x:v>355</x:v>
       </x:c>
-      <x:c r="D350" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="351" spans="1:8">
-      <x:c r="A351" s="0" t="s">
+      <x:c r="D351" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="352" spans="1:4">
+      <x:c r="A352" s="0" t="s">
         <x:v>356</x:v>
       </x:c>
-      <x:c r="D351" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="352" spans="1:8">
-      <x:c r="A352" s="0" t="s">
+      <x:c r="D352" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="353" spans="1:4">
+      <x:c r="A353" s="0" t="s">
         <x:v>357</x:v>
       </x:c>
-      <x:c r="D352" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="353" spans="1:8">
-      <x:c r="A353" s="0" t="s">
+      <x:c r="D353" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="354" spans="1:4">
+      <x:c r="A354" s="0" t="s">
         <x:v>358</x:v>
       </x:c>
-      <x:c r="D353" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="354" spans="1:8">
-      <x:c r="A354" s="0" t="s">
+      <x:c r="D354" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="355" spans="1:4">
+      <x:c r="A355" s="0" t="s">
         <x:v>359</x:v>
       </x:c>
-      <x:c r="D354" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="355" spans="1:8">
-      <x:c r="A355" s="0" t="s">
+      <x:c r="D355" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="356" spans="1:4">
+      <x:c r="A356" s="0" t="s">
         <x:v>360</x:v>
       </x:c>
-      <x:c r="D355" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="356" spans="1:8">
-      <x:c r="A356" s="0" t="s">
+      <x:c r="D356" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="357" spans="1:4">
+      <x:c r="A357" s="0" t="s">
         <x:v>361</x:v>
       </x:c>
-      <x:c r="D356" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="357" spans="1:8">
-      <x:c r="A357" s="0" t="s">
+      <x:c r="D357" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="358" spans="1:4">
+      <x:c r="A358" s="0" t="s">
         <x:v>362</x:v>
       </x:c>
-      <x:c r="D357" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="358" spans="1:8">
-      <x:c r="A358" s="0" t="s">
+      <x:c r="D358" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="359" spans="1:4">
+      <x:c r="A359" s="0" t="s">
         <x:v>363</x:v>
       </x:c>
-      <x:c r="D358" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="359" spans="1:8">
-      <x:c r="A359" s="0" t="s">
+      <x:c r="D359" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="360" spans="1:4">
+      <x:c r="A360" s="0" t="s">
         <x:v>364</x:v>
       </x:c>
-      <x:c r="D359" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="360" spans="1:8">
-      <x:c r="A360" s="0" t="s">
+      <x:c r="D360" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="361" spans="1:4">
+      <x:c r="A361" s="0" t="s">
         <x:v>365</x:v>
       </x:c>
-      <x:c r="D360" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="361" spans="1:8">
-      <x:c r="A361" s="0" t="s">
+      <x:c r="D361" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="362" spans="1:4">
+      <x:c r="A362" s="0" t="s">
         <x:v>366</x:v>
       </x:c>
-      <x:c r="D361" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="362" spans="1:8">
-      <x:c r="A362" s="0" t="s">
+      <x:c r="D362" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="363" spans="1:4">
+      <x:c r="A363" s="0" t="s">
         <x:v>367</x:v>
       </x:c>
-      <x:c r="D362" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="363" spans="1:8">
-      <x:c r="A363" s="0" t="s">
+      <x:c r="D363" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="364" spans="1:4">
+      <x:c r="A364" s="0" t="s">
         <x:v>368</x:v>
       </x:c>
-      <x:c r="D363" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="364" spans="1:8">
-      <x:c r="A364" s="0" t="s">
+      <x:c r="D364" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="365" spans="1:4">
+      <x:c r="A365" s="0" t="s">
         <x:v>369</x:v>
       </x:c>
-      <x:c r="D364" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="365" spans="1:8">
-      <x:c r="A365" s="0" t="s">
+      <x:c r="D365" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="366" spans="1:4">
+      <x:c r="A366" s="0" t="s">
         <x:v>370</x:v>
       </x:c>
-      <x:c r="D365" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="366" spans="1:8">
-      <x:c r="A366" s="0" t="s">
+      <x:c r="D366" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="367" spans="1:4">
+      <x:c r="A367" s="0" t="s">
         <x:v>371</x:v>
       </x:c>
-      <x:c r="D366" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="367" spans="1:8">
-      <x:c r="A367" s="0" t="s">
+      <x:c r="D367" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="368" spans="1:4">
+      <x:c r="A368" s="0" t="s">
         <x:v>372</x:v>
       </x:c>
-      <x:c r="D367" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="368" spans="1:8">
-      <x:c r="A368" s="0" t="s">
+      <x:c r="D368" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="369" spans="1:4">
+      <x:c r="A369" s="0" t="s">
         <x:v>373</x:v>
       </x:c>
-      <x:c r="D368" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="369" spans="1:8">
-      <x:c r="A369" s="0" t="s">
+      <x:c r="D369" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="370" spans="1:4">
+      <x:c r="A370" s="0" t="s">
         <x:v>374</x:v>
       </x:c>
-      <x:c r="D369" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="370" spans="1:8">
-      <x:c r="A370" s="0" t="s">
+      <x:c r="D370" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="371" spans="1:4">
+      <x:c r="A371" s="0" t="s">
         <x:v>375</x:v>
       </x:c>
-      <x:c r="D370" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="371" spans="1:8">
-      <x:c r="A371" s="0" t="s">
+      <x:c r="D371" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="372" spans="1:4">
+      <x:c r="A372" s="0" t="s">
         <x:v>376</x:v>
       </x:c>
-      <x:c r="D371" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="372" spans="1:8">
-      <x:c r="A372" s="0" t="s">
+      <x:c r="D372" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="373" spans="1:4">
+      <x:c r="A373" s="0" t="s">
         <x:v>377</x:v>
       </x:c>
-      <x:c r="D372" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="373" spans="1:8">
-      <x:c r="A373" s="0" t="s">
+      <x:c r="D373" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="374" spans="1:4">
+      <x:c r="A374" s="0" t="s">
         <x:v>378</x:v>
       </x:c>
-      <x:c r="D373" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="374" spans="1:8">
-      <x:c r="A374" s="0" t="s">
+      <x:c r="D374" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="375" spans="1:4">
+      <x:c r="A375" s="0" t="s">
         <x:v>379</x:v>
       </x:c>
-      <x:c r="D374" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="375" spans="1:8">
-      <x:c r="A375" s="0" t="s">
+      <x:c r="D375" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="376" spans="1:4">
+      <x:c r="A376" s="0" t="s">
         <x:v>380</x:v>
       </x:c>
-      <x:c r="D375" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="376" spans="1:8">
-      <x:c r="A376" s="0" t="s">
+      <x:c r="D376" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="377" spans="1:4">
+      <x:c r="A377" s="0" t="s">
         <x:v>381</x:v>
       </x:c>
-      <x:c r="D376" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="377" spans="1:8">
-      <x:c r="A377" s="0" t="s">
+      <x:c r="D377" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="378" spans="1:4">
+      <x:c r="A378" s="0" t="s">
         <x:v>382</x:v>
       </x:c>
-      <x:c r="D377" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="378" spans="1:8">
-      <x:c r="A378" s="0" t="s">
+      <x:c r="D378" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="379" spans="1:4">
+      <x:c r="A379" s="0" t="s">
         <x:v>383</x:v>
       </x:c>
-      <x:c r="D378" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="379" spans="1:8">
-      <x:c r="A379" s="0" t="s">
+      <x:c r="D379" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="380" spans="1:4">
+      <x:c r="A380" s="0" t="s">
         <x:v>384</x:v>
       </x:c>
-      <x:c r="D379" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="380" spans="1:8">
-      <x:c r="A380" s="0" t="s">
+      <x:c r="D380" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="381" spans="1:4">
+      <x:c r="A381" s="0" t="s">
         <x:v>385</x:v>
       </x:c>
-      <x:c r="D380" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="381" spans="1:8">
-      <x:c r="A381" s="0" t="s">
+      <x:c r="D381" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="382" spans="1:4">
+      <x:c r="A382" s="0" t="s">
         <x:v>386</x:v>
       </x:c>
-      <x:c r="D381" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="382" spans="1:8">
-      <x:c r="A382" s="0" t="s">
+      <x:c r="D382" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="383" spans="1:4">
+      <x:c r="A383" s="0" t="s">
         <x:v>387</x:v>
       </x:c>
-      <x:c r="D382" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="383" spans="1:8">
-      <x:c r="A383" s="0" t="s">
+      <x:c r="D383" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="384" spans="1:4">
+      <x:c r="A384" s="0" t="s">
         <x:v>388</x:v>
       </x:c>
-      <x:c r="D383" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="384" spans="1:8">
-      <x:c r="A384" s="0" t="s">
+      <x:c r="D384" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="385" spans="1:4">
+      <x:c r="A385" s="0" t="s">
         <x:v>389</x:v>
       </x:c>
-      <x:c r="D384" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="385" spans="1:8">
-      <x:c r="A385" s="0" t="s">
+      <x:c r="D385" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="386" spans="1:4">
+      <x:c r="A386" s="0" t="s">
         <x:v>390</x:v>
       </x:c>
-      <x:c r="D385" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="386" spans="1:8">
-      <x:c r="A386" s="0" t="s">
+      <x:c r="D386" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="387" spans="1:4">
+      <x:c r="A387" s="0" t="s">
         <x:v>391</x:v>
       </x:c>
-      <x:c r="D386" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="387" spans="1:8">
-      <x:c r="A387" s="0" t="s">
+      <x:c r="D387" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="388" spans="1:4">
+      <x:c r="A388" s="0" t="s">
         <x:v>392</x:v>
       </x:c>
-      <x:c r="D387" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="388" spans="1:8">
-      <x:c r="A388" s="0" t="s">
+      <x:c r="D388" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="389" spans="1:4">
+      <x:c r="A389" s="0" t="s">
         <x:v>393</x:v>
       </x:c>
-      <x:c r="D388" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="389" spans="1:8">
-      <x:c r="A389" s="0" t="s">
+      <x:c r="D389" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="390" spans="1:4">
+      <x:c r="A390" s="0" t="s">
         <x:v>394</x:v>
       </x:c>
-      <x:c r="D389" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="390" spans="1:8">
-      <x:c r="A390" s="0" t="s">
+      <x:c r="D390" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="391" spans="1:4">
+      <x:c r="A391" s="0" t="s">
         <x:v>395</x:v>
       </x:c>
-      <x:c r="D390" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="391" spans="1:8">
-      <x:c r="A391" s="0" t="s">
+      <x:c r="D391" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="392" spans="1:4">
+      <x:c r="A392" s="0" t="s">
         <x:v>396</x:v>
       </x:c>
-      <x:c r="D391" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="392" spans="1:8">
-      <x:c r="A392" s="0" t="s">
+      <x:c r="D392" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="393" spans="1:4">
+      <x:c r="A393" s="0" t="s">
         <x:v>397</x:v>
       </x:c>
-      <x:c r="D392" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="393" spans="1:8">
-      <x:c r="A393" s="0" t="s">
+      <x:c r="D393" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="394" spans="1:4">
+      <x:c r="A394" s="0" t="s">
         <x:v>398</x:v>
       </x:c>
-      <x:c r="D393" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="394" spans="1:8">
-      <x:c r="A394" s="0" t="s">
+      <x:c r="D394" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="395" spans="1:4">
+      <x:c r="A395" s="0" t="s">
         <x:v>399</x:v>
       </x:c>
-      <x:c r="D394" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="395" spans="1:8">
-      <x:c r="A395" s="0" t="s">
+      <x:c r="D395" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="396" spans="1:4">
+      <x:c r="A396" s="0" t="s">
         <x:v>400</x:v>
       </x:c>
-      <x:c r="D395" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="396" spans="1:8">
-      <x:c r="A396" s="0" t="s">
+      <x:c r="D396" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="397" spans="1:4">
+      <x:c r="A397" s="0" t="s">
         <x:v>401</x:v>
       </x:c>
-      <x:c r="D396" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="397" spans="1:8">
-      <x:c r="A397" s="0" t="s">
+      <x:c r="D397" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="398" spans="1:4">
+      <x:c r="A398" s="0" t="s">
         <x:v>402</x:v>
       </x:c>
-      <x:c r="D397" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="398" spans="1:8">
-      <x:c r="A398" s="0" t="s">
+      <x:c r="D398" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="399" spans="1:4">
+      <x:c r="A399" s="0" t="s">
         <x:v>403</x:v>
       </x:c>
-      <x:c r="D398" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="399" spans="1:8">
-      <x:c r="A399" s="0" t="s">
+      <x:c r="D399" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="400" spans="1:4">
+      <x:c r="A400" s="0" t="s">
         <x:v>404</x:v>
       </x:c>
-      <x:c r="D399" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="400" spans="1:8">
-      <x:c r="A400" s="0" t="s">
+      <x:c r="D400" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="401" spans="1:4">
+      <x:c r="A401" s="0" t="s">
         <x:v>405</x:v>
       </x:c>
-      <x:c r="D400" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="401" spans="1:8">
-      <x:c r="A401" s="0" t="s">
+      <x:c r="D401" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="402" spans="1:4">
+      <x:c r="A402" s="0" t="s">
         <x:v>406</x:v>
       </x:c>
-      <x:c r="D401" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="402" spans="1:8">
-      <x:c r="A402" s="0" t="s">
+      <x:c r="D402" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="403" spans="1:4">
+      <x:c r="A403" s="0" t="s">
         <x:v>407</x:v>
       </x:c>
-      <x:c r="D402" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="403" spans="1:8">
-      <x:c r="A403" s="0" t="s">
+      <x:c r="D403" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="404" spans="1:4">
+      <x:c r="A404" s="0" t="s">
         <x:v>408</x:v>
       </x:c>
-      <x:c r="D403" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="404" spans="1:8">
-      <x:c r="A404" s="0" t="s">
+      <x:c r="D404" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="405" spans="1:4">
+      <x:c r="A405" s="0" t="s">
         <x:v>409</x:v>
       </x:c>
-      <x:c r="D404" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="405" spans="1:8">
-      <x:c r="A405" s="0" t="s">
+      <x:c r="D405" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="406" spans="1:4">
+      <x:c r="A406" s="0" t="s">
         <x:v>410</x:v>
       </x:c>
-      <x:c r="D405" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="406" spans="1:8">
-      <x:c r="A406" s="0" t="s">
+      <x:c r="D406" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="407" spans="1:4">
+      <x:c r="A407" s="0" t="s">
         <x:v>411</x:v>
       </x:c>
-      <x:c r="D406" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="407" spans="1:8">
-      <x:c r="A407" s="0" t="s">
+      <x:c r="D407" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="408" spans="1:4">
+      <x:c r="A408" s="0" t="s">
         <x:v>412</x:v>
       </x:c>
-      <x:c r="D407" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="408" spans="1:8">
-      <x:c r="A408" s="0" t="s">
+      <x:c r="D408" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="409" spans="1:4">
+      <x:c r="A409" s="0" t="s">
         <x:v>413</x:v>
       </x:c>
-      <x:c r="D408" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="409" spans="1:8">
-      <x:c r="A409" s="0" t="s">
+      <x:c r="D409" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="410" spans="1:4">
+      <x:c r="A410" s="0" t="s">
         <x:v>414</x:v>
       </x:c>
-      <x:c r="D409" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="410" spans="1:8">
-      <x:c r="A410" s="0" t="s">
+      <x:c r="D410" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="411" spans="1:4">
+      <x:c r="A411" s="0" t="s">
         <x:v>415</x:v>
       </x:c>
-      <x:c r="D410" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="411" spans="1:8">
-      <x:c r="A411" s="0" t="s">
+      <x:c r="D411" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="412" spans="1:4">
+      <x:c r="A412" s="0" t="s">
         <x:v>416</x:v>
       </x:c>
-      <x:c r="D411" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="412" spans="1:8">
-      <x:c r="A412" s="0" t="s">
+      <x:c r="D412" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="413" spans="1:4">
+      <x:c r="A413" s="0" t="s">
         <x:v>417</x:v>
       </x:c>
-      <x:c r="D412" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="413" spans="1:8">
-      <x:c r="A413" s="0" t="s">
+      <x:c r="D413" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="414" spans="1:4">
+      <x:c r="A414" s="0" t="s">
         <x:v>418</x:v>
       </x:c>
-      <x:c r="D413" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="414" spans="1:8">
-      <x:c r="A414" s="0" t="s">
+      <x:c r="D414" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="415" spans="1:4">
+      <x:c r="A415" s="0" t="s">
         <x:v>419</x:v>
       </x:c>
-      <x:c r="D414" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="415" spans="1:8">
-      <x:c r="A415" s="0" t="s">
+      <x:c r="D415" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="416" spans="1:4">
+      <x:c r="A416" s="0" t="s">
         <x:v>420</x:v>
       </x:c>
-      <x:c r="D415" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="416" spans="1:8">
-      <x:c r="A416" s="0" t="s">
+      <x:c r="D416" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="417" spans="1:4">
+      <x:c r="A417" s="0" t="s">
         <x:v>421</x:v>
       </x:c>
-      <x:c r="D416" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="417" spans="1:8">
-      <x:c r="A417" s="0" t="s">
+      <x:c r="D417" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="418" spans="1:4">
+      <x:c r="A418" s="0" t="s">
         <x:v>422</x:v>
       </x:c>
-      <x:c r="D417" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="418" spans="1:8">
-      <x:c r="A418" s="0" t="s">
+      <x:c r="D418" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="419" spans="1:4">
+      <x:c r="A419" s="0" t="s">
         <x:v>423</x:v>
       </x:c>
-      <x:c r="D418" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="419" spans="1:8">
-      <x:c r="A419" s="0" t="s">
+      <x:c r="D419" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="420" spans="1:4">
+      <x:c r="A420" s="0" t="s">
         <x:v>424</x:v>
       </x:c>
-      <x:c r="D419" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="420" spans="1:8">
-      <x:c r="A420" s="0" t="s">
+      <x:c r="D420" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="421" spans="1:4">
+      <x:c r="A421" s="0" t="s">
         <x:v>425</x:v>
       </x:c>
-      <x:c r="D420" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="421" spans="1:8">
-      <x:c r="A421" s="0" t="s">
+      <x:c r="D421" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="422" spans="1:4">
+      <x:c r="A422" s="0" t="s">
         <x:v>426</x:v>
       </x:c>
-      <x:c r="D421" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="422" spans="1:8">
-      <x:c r="A422" s="0" t="s">
+      <x:c r="D422" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="423" spans="1:4">
+      <x:c r="A423" s="0" t="s">
         <x:v>427</x:v>
       </x:c>
-      <x:c r="D422" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="423" spans="1:8">
-      <x:c r="A423" s="0" t="s">
+      <x:c r="D423" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="424" spans="1:4">
+      <x:c r="A424" s="0" t="s">
         <x:v>428</x:v>
       </x:c>
-      <x:c r="D423" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="424" spans="1:8">
-      <x:c r="A424" s="0" t="s">
+      <x:c r="D424" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="425" spans="1:4">
+      <x:c r="A425" s="0" t="s">
         <x:v>429</x:v>
       </x:c>
-      <x:c r="D424" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="425" spans="1:8">
-      <x:c r="A425" s="0" t="s">
+      <x:c r="D425" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="426" spans="1:4">
+      <x:c r="A426" s="0" t="s">
         <x:v>430</x:v>
       </x:c>
-      <x:c r="D425" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="426" spans="1:8">
-      <x:c r="A426" s="0" t="s">
+      <x:c r="D426" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="427" spans="1:4">
+      <x:c r="A427" s="0" t="s">
         <x:v>431</x:v>
       </x:c>
-      <x:c r="D426" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="427" spans="1:8">
-      <x:c r="A427" s="0" t="s">
+      <x:c r="D427" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="428" spans="1:4">
+      <x:c r="A428" s="0" t="s">
         <x:v>432</x:v>
       </x:c>
-      <x:c r="D427" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="428" spans="1:8">
-      <x:c r="A428" s="0" t="s">
+      <x:c r="D428" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="429" spans="1:4">
+      <x:c r="A429" s="0" t="s">
         <x:v>433</x:v>
       </x:c>
-      <x:c r="D428" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="429" spans="1:8">
-      <x:c r="A429" s="0" t="s">
+      <x:c r="D429" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="430" spans="1:4">
+      <x:c r="A430" s="0" t="s">
         <x:v>434</x:v>
       </x:c>
-      <x:c r="D429" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="430" spans="1:8">
-      <x:c r="A430" s="0" t="s">
+      <x:c r="D430" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="431" spans="1:4">
+      <x:c r="A431" s="0" t="s">
         <x:v>435</x:v>
       </x:c>
-      <x:c r="D430" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="431" spans="1:8">
-      <x:c r="A431" s="0" t="s">
+      <x:c r="D431" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="432" spans="1:4">
+      <x:c r="A432" s="0" t="s">
         <x:v>436</x:v>
       </x:c>
-      <x:c r="D431" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="432" spans="1:8">
-      <x:c r="A432" s="0" t="s">
+      <x:c r="D432" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="433" spans="1:4">
+      <x:c r="A433" s="0" t="s">
         <x:v>437</x:v>
       </x:c>
-      <x:c r="D432" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="433" spans="1:8">
-      <x:c r="A433" s="0" t="s">
+      <x:c r="D433" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="434" spans="1:4">
+      <x:c r="A434" s="0" t="s">
         <x:v>438</x:v>
       </x:c>
-      <x:c r="D433" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="434" spans="1:8">
-      <x:c r="A434" s="0" t="s">
+      <x:c r="D434" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="435" spans="1:4">
+      <x:c r="A435" s="0" t="s">
         <x:v>439</x:v>
       </x:c>
-      <x:c r="D434" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="435" spans="1:8">
-      <x:c r="A435" s="0" t="s">
+      <x:c r="D435" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="436" spans="1:4">
+      <x:c r="A436" s="0" t="s">
         <x:v>440</x:v>
       </x:c>
-      <x:c r="D435" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="436" spans="1:8">
-      <x:c r="A436" s="0" t="s">
+      <x:c r="D436" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="437" spans="1:4">
+      <x:c r="A437" s="0" t="s">
         <x:v>441</x:v>
       </x:c>
-      <x:c r="D436" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="437" spans="1:8">
-      <x:c r="A437" s="0" t="s">
+      <x:c r="D437" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="438" spans="1:4">
+      <x:c r="A438" s="0" t="s">
         <x:v>442</x:v>
       </x:c>
-      <x:c r="D437" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="438" spans="1:8">
-      <x:c r="A438" s="0" t="s">
+      <x:c r="D438" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="439" spans="1:4">
+      <x:c r="A439" s="0" t="s">
         <x:v>443</x:v>
       </x:c>
-      <x:c r="D438" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="439" spans="1:8">
-      <x:c r="A439" s="0" t="s">
+      <x:c r="D439" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="440" spans="1:4">
+      <x:c r="A440" s="0" t="s">
         <x:v>444</x:v>
       </x:c>
-      <x:c r="D439" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="440" spans="1:8">
-      <x:c r="A440" s="0" t="s">
+      <x:c r="D440" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="441" spans="1:4">
+      <x:c r="A441" s="0" t="s">
         <x:v>445</x:v>
       </x:c>
-      <x:c r="D440" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="441" spans="1:8">
-      <x:c r="A441" s="0" t="s">
+      <x:c r="D441" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="442" spans="1:4">
+      <x:c r="A442" s="0" t="s">
         <x:v>446</x:v>
       </x:c>
-      <x:c r="D441" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="442" spans="1:8">
-      <x:c r="A442" s="0" t="s">
+      <x:c r="D442" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="443" spans="1:4">
+      <x:c r="A443" s="0" t="s">
         <x:v>447</x:v>
       </x:c>
-      <x:c r="D442" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="443" spans="1:8">
-      <x:c r="A443" s="0" t="s">
+      <x:c r="D443" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="444" spans="1:4">
+      <x:c r="A444" s="0" t="s">
         <x:v>448</x:v>
       </x:c>
-      <x:c r="D443" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="444" spans="1:8">
-      <x:c r="A444" s="0" t="s">
+      <x:c r="D444" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="445" spans="1:4">
+      <x:c r="A445" s="0" t="s">
         <x:v>449</x:v>
       </x:c>
-      <x:c r="D444" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="445" spans="1:8">
-      <x:c r="A445" s="0" t="s">
+      <x:c r="D445" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="446" spans="1:4">
+      <x:c r="A446" s="0" t="s">
         <x:v>450</x:v>
       </x:c>
-      <x:c r="D445" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="446" spans="1:8">
-      <x:c r="A446" s="0" t="s">
+      <x:c r="D446" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="447" spans="1:4">
+      <x:c r="A447" s="0" t="s">
         <x:v>451</x:v>
       </x:c>
-      <x:c r="D446" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="447" spans="1:8">
-      <x:c r="A447" s="0" t="s">
+      <x:c r="D447" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="448" spans="1:4">
+      <x:c r="A448" s="0" t="s">
         <x:v>452</x:v>
       </x:c>
-      <x:c r="D447" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="448" spans="1:8">
-      <x:c r="A448" s="0" t="s">
+      <x:c r="D448" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="449" spans="1:4">
+      <x:c r="A449" s="0" t="s">
         <x:v>453</x:v>
       </x:c>
-      <x:c r="D448" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="449" spans="1:8">
-      <x:c r="A449" s="0" t="s">
+      <x:c r="D449" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="450" spans="1:4">
+      <x:c r="A450" s="0" t="s">
         <x:v>454</x:v>
       </x:c>
-      <x:c r="D449" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="450" spans="1:8">
-      <x:c r="A450" s="0" t="s">
+      <x:c r="D450" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="451" spans="1:4">
+      <x:c r="A451" s="0" t="s">
         <x:v>455</x:v>
       </x:c>
-      <x:c r="D450" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="451" spans="1:8">
-      <x:c r="A451" s="0" t="s">
+      <x:c r="D451" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="452" spans="1:4">
+      <x:c r="A452" s="0" t="s">
         <x:v>456</x:v>
       </x:c>
-      <x:c r="D451" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="452" spans="1:8">
-      <x:c r="A452" s="0" t="s">
+      <x:c r="D452" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="453" spans="1:4">
+      <x:c r="A453" s="0" t="s">
         <x:v>457</x:v>
       </x:c>
-      <x:c r="D452" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="453" spans="1:8">
-      <x:c r="A453" s="0" t="s">
+      <x:c r="D453" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="454" spans="1:4">
+      <x:c r="A454" s="0" t="s">
         <x:v>458</x:v>
       </x:c>
-      <x:c r="D453" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="454" spans="1:8">
-      <x:c r="A454" s="0" t="s">
+      <x:c r="D454" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="455" spans="1:4">
+      <x:c r="A455" s="0" t="s">
         <x:v>459</x:v>
       </x:c>
-      <x:c r="D454" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="455" spans="1:8">
-      <x:c r="A455" s="0" t="s">
+      <x:c r="D455" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="456" spans="1:4">
+      <x:c r="A456" s="0" t="s">
         <x:v>460</x:v>
       </x:c>
-      <x:c r="D455" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="456" spans="1:8">
-      <x:c r="A456" s="0" t="s">
+      <x:c r="D456" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="457" spans="1:4">
+      <x:c r="A457" s="0" t="s">
         <x:v>461</x:v>
       </x:c>
-      <x:c r="D456" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="457" spans="1:8">
-      <x:c r="A457" s="0" t="s">
+      <x:c r="D457" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="458" spans="1:4">
+      <x:c r="A458" s="0" t="s">
         <x:v>462</x:v>
       </x:c>
-      <x:c r="D457" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="458" spans="1:8">
-      <x:c r="A458" s="0" t="s">
+      <x:c r="D458" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="459" spans="1:4">
+      <x:c r="A459" s="0" t="s">
         <x:v>463</x:v>
       </x:c>
-      <x:c r="D458" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="459" spans="1:8">
-      <x:c r="A459" s="0" t="s">
+      <x:c r="D459" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="460" spans="1:4">
+      <x:c r="A460" s="0" t="s">
         <x:v>464</x:v>
       </x:c>
-      <x:c r="D459" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="460" spans="1:8">
-      <x:c r="A460" s="0" t="s">
+      <x:c r="D460" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="461" spans="1:4">
+      <x:c r="A461" s="0" t="s">
         <x:v>465</x:v>
       </x:c>
-      <x:c r="D460" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="461" spans="1:8">
-      <x:c r="A461" s="0" t="s">
+      <x:c r="D461" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="462" spans="1:4">
+      <x:c r="A462" s="0" t="s">
         <x:v>466</x:v>
       </x:c>
-      <x:c r="D461" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="462" spans="1:8">
-      <x:c r="A462" s="0" t="s">
+      <x:c r="D462" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="463" spans="1:4">
+      <x:c r="A463" s="0" t="s">
         <x:v>467</x:v>
       </x:c>
-      <x:c r="D462" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="463" spans="1:8">
-      <x:c r="A463" s="0" t="s">
+      <x:c r="D463" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="464" spans="1:4">
+      <x:c r="A464" s="0" t="s">
         <x:v>468</x:v>
       </x:c>
-      <x:c r="D463" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="464" spans="1:8">
-      <x:c r="A464" s="0" t="s">
+      <x:c r="D464" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="465" spans="1:4">
+      <x:c r="A465" s="0" t="s">
         <x:v>469</x:v>
       </x:c>
-      <x:c r="D464" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="465" spans="1:8">
-      <x:c r="A465" s="0" t="s">
+      <x:c r="D465" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="466" spans="1:4">
+      <x:c r="A466" s="0" t="s">
         <x:v>470</x:v>
       </x:c>
-      <x:c r="D465" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="466" spans="1:8">
-      <x:c r="A466" s="0" t="s">
+      <x:c r="D466" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="467" spans="1:4">
+      <x:c r="A467" s="0" t="s">
         <x:v>471</x:v>
       </x:c>
-      <x:c r="D466" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="467" spans="1:8">
-      <x:c r="A467" s="0" t="s">
+      <x:c r="D467" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="468" spans="1:4">
+      <x:c r="A468" s="0" t="s">
         <x:v>472</x:v>
       </x:c>
-      <x:c r="D467" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="468" spans="1:8">
-      <x:c r="A468" s="0" t="s">
+      <x:c r="D468" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="469" spans="1:4">
+      <x:c r="A469" s="0" t="s">
         <x:v>473</x:v>
       </x:c>
-      <x:c r="D468" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="469" spans="1:8">
-      <x:c r="A469" s="0" t="s">
+      <x:c r="D469" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="470" spans="1:4">
+      <x:c r="A470" s="0" t="s">
         <x:v>474</x:v>
       </x:c>
-      <x:c r="D469" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="470" spans="1:8">
-      <x:c r="A470" s="0" t="s">
+      <x:c r="D470" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="471" spans="1:4">
+      <x:c r="A471" s="0" t="s">
         <x:v>475</x:v>
       </x:c>
-      <x:c r="D470" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="471" spans="1:8">
-      <x:c r="A471" s="0" t="s">
+      <x:c r="D471" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="472" spans="1:4">
+      <x:c r="A472" s="0" t="s">
         <x:v>476</x:v>
       </x:c>
-      <x:c r="D471" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="472" spans="1:8">
-      <x:c r="A472" s="0" t="s">
+      <x:c r="D472" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="473" spans="1:4">
+      <x:c r="A473" s="0" t="s">
         <x:v>477</x:v>
       </x:c>
-      <x:c r="D472" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="473" spans="1:8">
-      <x:c r="A473" s="0" t="s">
+      <x:c r="D473" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="474" spans="1:4">
+      <x:c r="A474" s="0" t="s">
         <x:v>478</x:v>
       </x:c>
-      <x:c r="D473" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="474" spans="1:8">
-      <x:c r="A474" s="0" t="s">
+      <x:c r="D474" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="475" spans="1:4">
+      <x:c r="A475" s="0" t="s">
         <x:v>479</x:v>
       </x:c>
-      <x:c r="D474" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="475" spans="1:8">
-      <x:c r="A475" s="0" t="s">
+      <x:c r="D475" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="476" spans="1:4">
+      <x:c r="A476" s="0" t="s">
         <x:v>480</x:v>
       </x:c>
-      <x:c r="D475" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="476" spans="1:8">
-      <x:c r="A476" s="0" t="s">
+      <x:c r="D476" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="477" spans="1:4">
+      <x:c r="A477" s="0" t="s">
         <x:v>481</x:v>
       </x:c>
-      <x:c r="D476" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="477" spans="1:8">
-      <x:c r="A477" s="0" t="s">
+      <x:c r="D477" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="478" spans="1:4">
+      <x:c r="A478" s="0" t="s">
         <x:v>482</x:v>
       </x:c>
-      <x:c r="D477" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="478" spans="1:8">
-      <x:c r="A478" s="0" t="s">
+      <x:c r="D478" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="479" spans="1:4">
+      <x:c r="A479" s="0" t="s">
         <x:v>483</x:v>
       </x:c>
-      <x:c r="D478" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="479" spans="1:8">
-      <x:c r="A479" s="0" t="s">
+      <x:c r="D479" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="480" spans="1:4">
+      <x:c r="A480" s="0" t="s">
         <x:v>484</x:v>
       </x:c>
-      <x:c r="D479" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="480" spans="1:8">
-      <x:c r="A480" s="0" t="s">
+      <x:c r="D480" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="481" spans="1:4">
+      <x:c r="A481" s="0" t="s">
         <x:v>485</x:v>
       </x:c>
-      <x:c r="D480" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="481" spans="1:8">
-      <x:c r="A481" s="0" t="s">
+      <x:c r="D481" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="482" spans="1:4">
+      <x:c r="A482" s="0" t="s">
         <x:v>486</x:v>
       </x:c>
-      <x:c r="D481" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="482" spans="1:8">
-      <x:c r="A482" s="0" t="s">
+      <x:c r="D482" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="483" spans="1:4">
+      <x:c r="A483" s="0" t="s">
         <x:v>487</x:v>
       </x:c>
-      <x:c r="D482" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="483" spans="1:8">
-      <x:c r="A483" s="0" t="s">
+      <x:c r="D483" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="484" spans="1:4">
+      <x:c r="A484" s="0" t="s">
         <x:v>488</x:v>
       </x:c>
-      <x:c r="D483" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="484" spans="1:8">
-      <x:c r="A484" s="0" t="s">
+      <x:c r="D484" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="485" spans="1:4">
+      <x:c r="A485" s="0" t="s">
         <x:v>489</x:v>
       </x:c>
-      <x:c r="D484" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="485" spans="1:8">
-      <x:c r="A485" s="0" t="s">
+      <x:c r="D485" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="486" spans="1:4">
+      <x:c r="A486" s="0" t="s">
         <x:v>490</x:v>
       </x:c>
-      <x:c r="D485" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="486" spans="1:8">
-      <x:c r="A486" s="0" t="s">
+      <x:c r="D486" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="487" spans="1:4">
+      <x:c r="A487" s="0" t="s">
         <x:v>491</x:v>
       </x:c>
-      <x:c r="D486" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="487" spans="1:8">
-      <x:c r="A487" s="0" t="s">
+      <x:c r="D487" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="488" spans="1:4">
+      <x:c r="A488" s="0" t="s">
         <x:v>492</x:v>
       </x:c>
-      <x:c r="D487" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="488" spans="1:8">
-      <x:c r="A488" s="0" t="s">
+      <x:c r="D488" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="489" spans="1:4">
+      <x:c r="A489" s="0" t="s">
         <x:v>493</x:v>
       </x:c>
-      <x:c r="D488" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="489" spans="1:8">
-      <x:c r="A489" s="0" t="s">
+      <x:c r="D489" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="490" spans="1:4">
+      <x:c r="A490" s="0" t="s">
         <x:v>494</x:v>
       </x:c>
-      <x:c r="D489" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="490" spans="1:8">
-      <x:c r="A490" s="0" t="s">
+      <x:c r="D490" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="491" spans="1:4">
+      <x:c r="A491" s="0" t="s">
         <x:v>495</x:v>
       </x:c>
-      <x:c r="D490" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="491" spans="1:8">
-      <x:c r="A491" s="0" t="s">
+      <x:c r="D491" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="492" spans="1:4">
+      <x:c r="A492" s="0" t="s">
         <x:v>496</x:v>
       </x:c>
-      <x:c r="D491" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="492" spans="1:8">
-      <x:c r="A492" s="0" t="s">
+      <x:c r="D492" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="493" spans="1:4">
+      <x:c r="A493" s="0" t="s">
         <x:v>497</x:v>
       </x:c>
-      <x:c r="D492" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="493" spans="1:8">
-      <x:c r="A493" s="0" t="s">
+      <x:c r="D493" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="494" spans="1:4">
+      <x:c r="A494" s="0" t="s">
         <x:v>498</x:v>
       </x:c>
-      <x:c r="D493" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="494" spans="1:8">
-      <x:c r="A494" s="0" t="s">
+      <x:c r="D494" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="495" spans="1:4">
+      <x:c r="A495" s="0" t="s">
         <x:v>499</x:v>
       </x:c>
-      <x:c r="D494" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="495" spans="1:8">
-      <x:c r="A495" s="0" t="s">
+      <x:c r="D495" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="496" spans="1:4">
+      <x:c r="A496" s="0" t="s">
         <x:v>500</x:v>
       </x:c>
-      <x:c r="D495" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="496" spans="1:8">
-      <x:c r="A496" s="0" t="s">
+      <x:c r="D496" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="497" spans="1:4">
+      <x:c r="A497" s="0" t="s">
         <x:v>501</x:v>
       </x:c>
-      <x:c r="D496" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="497" spans="1:8">
-      <x:c r="A497" s="0" t="s">
+      <x:c r="D497" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="498" spans="1:4">
+      <x:c r="A498" s="0" t="s">
         <x:v>502</x:v>
       </x:c>
-      <x:c r="D497" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="498" spans="1:8">
-      <x:c r="A498" s="0" t="s">
+      <x:c r="D498" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="499" spans="1:4">
+      <x:c r="A499" s="0" t="s">
         <x:v>503</x:v>
       </x:c>
-      <x:c r="D498" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="499" spans="1:8">
-      <x:c r="A499" s="0" t="s">
+      <x:c r="D499" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="500" spans="1:4">
+      <x:c r="A500" s="0" t="s">
         <x:v>504</x:v>
       </x:c>
-      <x:c r="D499" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="500" spans="1:8">
-      <x:c r="A500" s="0" t="s">
+      <x:c r="D500" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="501" spans="1:4">
+      <x:c r="A501" s="0" t="s">
         <x:v>505</x:v>
       </x:c>
-      <x:c r="D500" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="501" spans="1:8">
-      <x:c r="A501" s="0" t="s">
+      <x:c r="D501" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="502" spans="1:4">
+      <x:c r="A502" s="0" t="s">
         <x:v>506</x:v>
       </x:c>
-      <x:c r="D501" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="502" spans="1:8">
-      <x:c r="A502" s="0" t="s">
+      <x:c r="D502" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="503" spans="1:4">
+      <x:c r="A503" s="0" t="s">
         <x:v>507</x:v>
       </x:c>
-      <x:c r="D502" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="503" spans="1:8">
-      <x:c r="A503" s="0" t="s">
+      <x:c r="D503" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="504" spans="1:4">
+      <x:c r="A504" s="0" t="s">
         <x:v>508</x:v>
       </x:c>
-      <x:c r="D503" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="504" spans="1:8">
-      <x:c r="A504" s="0" t="s">
+      <x:c r="D504" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="505" spans="1:4">
+      <x:c r="A505" s="0" t="s">
         <x:v>509</x:v>
       </x:c>
-      <x:c r="D504" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="505" spans="1:8">
-      <x:c r="A505" s="0" t="s">
+      <x:c r="D505" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="506" spans="1:4">
+      <x:c r="A506" s="0" t="s">
         <x:v>510</x:v>
       </x:c>
-      <x:c r="D505" s="0">
+      <x:c r="D506" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="507" spans="1:4">
+      <x:c r="A507" s="0" t="s">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c r="D507" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="508" spans="1:4">
+      <x:c r="A508" s="0" t="s">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="D508" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="509" spans="1:4">
+      <x:c r="A509" s="0" t="s">
+        <x:v>513</x:v>
+      </x:c>
+      <x:c r="D509" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="510" spans="1:4">
+      <x:c r="A510" s="0" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="D510" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="511" spans="1:4">
+      <x:c r="A511" s="0" t="s">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c r="D511" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="512" spans="1:4">
+      <x:c r="A512" s="0" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="D512" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="513" spans="1:4">
+      <x:c r="A513" s="0" t="s">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="D513" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="514" spans="1:4">
+      <x:c r="A514" s="0" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="D514" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="515" spans="1:4">
+      <x:c r="A515" s="0" t="s">
+        <x:v>519</x:v>
+      </x:c>
+      <x:c r="D515" s="0">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -7650,12 +6893,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>520</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>521</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7687,12 +6930,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>522</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" ht="30" customHeight="1">
       <x:c r="A2" s="1" t="s">
-        <x:v>514</x:v>
+        <x:v>523</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
